--- a/rtss-mexico/src/main/resources/agriculture/cultures.xlsx
+++ b/rtss-mexico/src/main/resources/agriculture/cultures.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\rtss-mexico\src\main\resources\agriculture\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10783599-8E86-4A42-8069-6E4E424FC785}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7608311F-B005-499B-83B9-761006C46C80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2235" yWindow="2205" windowWidth="23055" windowHeight="19110" xr2:uid="{96FB73F9-179D-47FB-B022-0E98E67E2FA8}"/>
+    <workbookView xWindow="12495" yWindow="2715" windowWidth="23355" windowHeight="19110" xr2:uid="{96FB73F9-179D-47FB-B022-0E98E67E2FA8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="305">
   <si>
     <t>Annual</t>
   </si>
@@ -447,9 +447,6 @@
     <t>бараний горох</t>
   </si>
   <si>
-    <t>нут</t>
-  </si>
-  <si>
     <t>синонимы</t>
   </si>
   <si>
@@ -507,9 +504,6 @@
     <t>маис</t>
   </si>
   <si>
-    <t>кукуруза</t>
-  </si>
-  <si>
     <t>бамия</t>
   </si>
   <si>
@@ -889,6 +883,69 @@
   </si>
   <si>
     <t>каймито</t>
+  </si>
+  <si>
+    <t>Ajonjolí</t>
+  </si>
+  <si>
+    <t>cártamo</t>
+  </si>
+  <si>
+    <t>кукуруза,maíz</t>
+  </si>
+  <si>
+    <t>sorgo (grano)</t>
+  </si>
+  <si>
+    <t>caña de azúcar</t>
+  </si>
+  <si>
+    <t>нут,garbanzo (grano)</t>
+  </si>
+  <si>
+    <t>semilla de algodón</t>
+  </si>
+  <si>
+    <t>arroz palay</t>
+  </si>
+  <si>
+    <t>algodón (pluma)</t>
+  </si>
+  <si>
+    <t>café</t>
+  </si>
+  <si>
+    <t>plátano</t>
+  </si>
+  <si>
+    <t>plátano roatán</t>
+  </si>
+  <si>
+    <t>Platano Roatan</t>
+  </si>
+  <si>
+    <t>плантаны роатан</t>
+  </si>
+  <si>
+    <t>plantain roatan</t>
+  </si>
+  <si>
+    <t>green chili</t>
+  </si>
+  <si>
+    <t>зелёный перец чили</t>
+  </si>
+  <si>
+    <t>Chile Verde</t>
+  </si>
+  <si>
+    <t>Soya</t>
+  </si>
+  <si>
+    <t>соя</t>
+  </si>
+  <si>
+    <t>soy</t>
   </si>
 </sst>
 </file>
@@ -1249,10 +1306,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5536FC84-276C-47F5-A823-8A76B73F8393}">
-  <dimension ref="A1:F88"/>
+  <dimension ref="A1:F91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1261,7 +1318,7 @@
     <col min="2" max="2" width="31.28515625" customWidth="1"/>
     <col min="3" max="3" width="27" customWidth="1"/>
     <col min="4" max="4" width="15.42578125" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" customWidth="1"/>
+    <col min="5" max="5" width="32.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1278,10 +1335,10 @@
         <v>92</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1311,6 +1368,9 @@
       <c r="D3" t="s">
         <v>96</v>
       </c>
+      <c r="E3" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1320,10 +1380,13 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D4" t="s">
-        <v>164</v>
+        <v>162</v>
+      </c>
+      <c r="E4" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1353,6 +1416,9 @@
       <c r="D6" t="s">
         <v>100</v>
       </c>
+      <c r="E6" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1465,6 +1531,9 @@
       <c r="D14" t="s">
         <v>114</v>
       </c>
+      <c r="E14" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -1555,13 +1624,13 @@
         <v>0</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>301</v>
       </c>
       <c r="C21" t="s">
-        <v>132</v>
+        <v>300</v>
       </c>
       <c r="D21" t="s">
-        <v>133</v>
+        <v>299</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1569,13 +1638,13 @@
         <v>0</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C22" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D22" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1583,19 +1652,13 @@
         <v>0</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C23" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D23" t="s">
-        <v>136</v>
-      </c>
-      <c r="E23" t="s">
-        <v>138</v>
-      </c>
-      <c r="F23" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1603,16 +1666,19 @@
         <v>0</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C24" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D24" t="s">
-        <v>140</v>
+        <v>136</v>
+      </c>
+      <c r="E24" t="s">
+        <v>289</v>
       </c>
       <c r="F24" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1620,16 +1686,16 @@
         <v>0</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C25" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D25" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F25" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1637,13 +1703,16 @@
         <v>0</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C26" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D26" t="s">
-        <v>145</v>
+        <v>141</v>
+      </c>
+      <c r="F26" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1651,16 +1720,13 @@
         <v>0</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C27" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="D27" t="s">
-        <v>134</v>
-      </c>
-      <c r="F27" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1668,19 +1734,16 @@
         <v>0</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="D28" t="s">
-        <v>26</v>
-      </c>
-      <c r="E28" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="F28" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1688,13 +1751,19 @@
         <v>0</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D29" t="s">
-        <v>154</v>
+        <v>26</v>
+      </c>
+      <c r="E29" t="s">
+        <v>151</v>
+      </c>
+      <c r="F29" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1702,16 +1771,13 @@
         <v>0</v>
       </c>
       <c r="B30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C30" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D30" t="s">
-        <v>203</v>
-      </c>
-      <c r="E30" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1719,13 +1785,16 @@
         <v>0</v>
       </c>
       <c r="B31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C31" t="s">
-        <v>254</v>
+        <v>154</v>
       </c>
       <c r="D31" t="s">
-        <v>204</v>
+        <v>201</v>
+      </c>
+      <c r="E31" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1733,13 +1802,13 @@
         <v>0</v>
       </c>
       <c r="B32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C32" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D32" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1747,16 +1816,13 @@
         <v>0</v>
       </c>
       <c r="B33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C33" t="s">
-        <v>157</v>
+        <v>253</v>
       </c>
       <c r="D33" t="s">
-        <v>206</v>
-      </c>
-      <c r="E33" t="s">
-        <v>158</v>
+        <v>203</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1764,13 +1830,16 @@
         <v>0</v>
       </c>
       <c r="B34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C34" t="s">
-        <v>256</v>
+        <v>156</v>
       </c>
       <c r="D34" t="s">
-        <v>207</v>
+        <v>204</v>
+      </c>
+      <c r="E34" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1778,16 +1847,13 @@
         <v>0</v>
       </c>
       <c r="B35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C35" t="s">
-        <v>159</v>
+        <v>254</v>
       </c>
       <c r="D35" t="s">
-        <v>208</v>
-      </c>
-      <c r="E35" t="s">
-        <v>160</v>
+        <v>205</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1795,13 +1861,16 @@
         <v>0</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C36" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D36" t="s">
-        <v>162</v>
+        <v>206</v>
+      </c>
+      <c r="E36" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1809,13 +1878,13 @@
         <v>0</v>
       </c>
       <c r="B37" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C37" t="s">
-        <v>257</v>
+        <v>159</v>
       </c>
       <c r="D37" t="s">
-        <v>209</v>
+        <v>160</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1823,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="B38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C38" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D38" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1837,13 +1906,13 @@
         <v>0</v>
       </c>
       <c r="B39" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C39" t="s">
-        <v>126</v>
+        <v>256</v>
       </c>
       <c r="D39" t="s">
-        <v>125</v>
+        <v>208</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1851,13 +1920,16 @@
         <v>0</v>
       </c>
       <c r="B40" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C40" t="s">
-        <v>166</v>
+        <v>126</v>
       </c>
       <c r="D40" t="s">
-        <v>211</v>
+        <v>125</v>
+      </c>
+      <c r="E40" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1865,13 +1937,16 @@
         <v>0</v>
       </c>
       <c r="B41" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C41" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D41" t="s">
-        <v>212</v>
+        <v>209</v>
+      </c>
+      <c r="E41" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1879,13 +1954,13 @@
         <v>0</v>
       </c>
       <c r="B42" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C42" t="s">
         <v>165</v>
       </c>
       <c r="D42" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1893,13 +1968,13 @@
         <v>0</v>
       </c>
       <c r="B43" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C43" t="s">
-        <v>259</v>
+        <v>163</v>
       </c>
       <c r="D43" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1907,19 +1982,13 @@
         <v>0</v>
       </c>
       <c r="B44" t="s">
-        <v>42</v>
+        <v>302</v>
       </c>
       <c r="C44" t="s">
-        <v>170</v>
+        <v>303</v>
       </c>
       <c r="D44" t="s">
-        <v>168</v>
-      </c>
-      <c r="E44" t="s">
-        <v>169</v>
-      </c>
-      <c r="F44" t="s">
-        <v>171</v>
+        <v>304</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1927,13 +1996,13 @@
         <v>0</v>
       </c>
       <c r="B45" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C45" t="s">
-        <v>172</v>
+        <v>257</v>
       </c>
       <c r="D45" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -1941,41 +2010,47 @@
         <v>0</v>
       </c>
       <c r="B46" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C46" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D46" t="s">
-        <v>216</v>
+        <v>166</v>
+      </c>
+      <c r="E46" t="s">
+        <v>167</v>
+      </c>
+      <c r="F46" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="B47" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C47" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D47" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="B48" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C48" t="s">
-        <v>260</v>
+        <v>171</v>
       </c>
       <c r="D48" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -1983,19 +2058,13 @@
         <v>45</v>
       </c>
       <c r="B49" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C49" t="s">
-        <v>261</v>
+        <v>172</v>
       </c>
       <c r="D49" t="s">
-        <v>219</v>
-      </c>
-      <c r="E49" t="s">
-        <v>175</v>
-      </c>
-      <c r="F49" t="s">
-        <v>176</v>
+        <v>215</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -2003,13 +2072,13 @@
         <v>45</v>
       </c>
       <c r="B50" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C50" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D50" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -2017,13 +2086,19 @@
         <v>45</v>
       </c>
       <c r="B51" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C51" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D51" t="s">
-        <v>221</v>
+        <v>217</v>
+      </c>
+      <c r="E51" t="s">
+        <v>173</v>
+      </c>
+      <c r="F51" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -2031,16 +2106,13 @@
         <v>45</v>
       </c>
       <c r="B52" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C52" t="s">
-        <v>285</v>
+        <v>260</v>
       </c>
       <c r="D52" t="s">
-        <v>222</v>
-      </c>
-      <c r="F52" t="s">
-        <v>176</v>
+        <v>218</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -2048,13 +2120,16 @@
         <v>45</v>
       </c>
       <c r="B53" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C53" t="s">
-        <v>177</v>
+        <v>261</v>
       </c>
       <c r="D53" t="s">
-        <v>223</v>
+        <v>219</v>
+      </c>
+      <c r="E53" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -2062,13 +2137,16 @@
         <v>45</v>
       </c>
       <c r="B54" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C54" t="s">
-        <v>264</v>
+        <v>283</v>
       </c>
       <c r="D54" t="s">
-        <v>224</v>
+        <v>220</v>
+      </c>
+      <c r="F54" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -2076,13 +2154,13 @@
         <v>45</v>
       </c>
       <c r="B55" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C55" t="s">
-        <v>265</v>
+        <v>175</v>
       </c>
       <c r="D55" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -2090,13 +2168,13 @@
         <v>45</v>
       </c>
       <c r="B56" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C56" t="s">
-        <v>179</v>
+        <v>262</v>
       </c>
       <c r="D56" t="s">
-        <v>178</v>
+        <v>222</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -2104,16 +2182,13 @@
         <v>45</v>
       </c>
       <c r="B57" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C57" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D57" t="s">
-        <v>180</v>
-      </c>
-      <c r="F57" t="s">
-        <v>181</v>
+        <v>223</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -2121,13 +2196,13 @@
         <v>45</v>
       </c>
       <c r="B58" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C58" t="s">
-        <v>267</v>
+        <v>177</v>
       </c>
       <c r="D58" t="s">
-        <v>226</v>
+        <v>176</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -2135,13 +2210,16 @@
         <v>45</v>
       </c>
       <c r="B59" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C59" t="s">
-        <v>183</v>
+        <v>264</v>
       </c>
       <c r="D59" t="s">
-        <v>182</v>
+        <v>178</v>
+      </c>
+      <c r="F59" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -2149,13 +2227,13 @@
         <v>45</v>
       </c>
       <c r="B60" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C60" t="s">
-        <v>184</v>
+        <v>265</v>
       </c>
       <c r="D60" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -2163,13 +2241,13 @@
         <v>45</v>
       </c>
       <c r="B61" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C61" t="s">
-        <v>268</v>
+        <v>181</v>
       </c>
       <c r="D61" t="s">
-        <v>228</v>
+        <v>180</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -2177,16 +2255,13 @@
         <v>45</v>
       </c>
       <c r="B62" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C62" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D62" t="s">
-        <v>229</v>
-      </c>
-      <c r="E62" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -2194,13 +2269,13 @@
         <v>45</v>
       </c>
       <c r="B63" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C63" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D63" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -2208,13 +2283,16 @@
         <v>45</v>
       </c>
       <c r="B64" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C64" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D64" t="s">
-        <v>232</v>
+        <v>227</v>
+      </c>
+      <c r="E64" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -2222,13 +2300,13 @@
         <v>45</v>
       </c>
       <c r="B65" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C65" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D65" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -2236,16 +2314,13 @@
         <v>45</v>
       </c>
       <c r="B66" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C66" t="s">
-        <v>271</v>
+        <v>184</v>
       </c>
       <c r="D66" t="s">
-        <v>234</v>
-      </c>
-      <c r="E66" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -2253,13 +2328,13 @@
         <v>45</v>
       </c>
       <c r="B67" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C67" t="s">
-        <v>187</v>
+        <v>268</v>
       </c>
       <c r="D67" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -2267,13 +2342,16 @@
         <v>45</v>
       </c>
       <c r="B68" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C68" t="s">
-        <v>188</v>
+        <v>269</v>
       </c>
       <c r="D68" t="s">
-        <v>237</v>
+        <v>232</v>
+      </c>
+      <c r="E68" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -2281,13 +2359,13 @@
         <v>45</v>
       </c>
       <c r="B69" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C69" t="s">
-        <v>272</v>
+        <v>185</v>
       </c>
       <c r="D69" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -2295,13 +2373,13 @@
         <v>45</v>
       </c>
       <c r="B70" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C70" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D70" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -2309,13 +2387,13 @@
         <v>45</v>
       </c>
       <c r="B71" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C71" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D71" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -2323,16 +2401,13 @@
         <v>45</v>
       </c>
       <c r="B72" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C72" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D72" t="s">
-        <v>190</v>
-      </c>
-      <c r="F72" t="s">
-        <v>176</v>
+        <v>237</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -2340,13 +2415,13 @@
         <v>45</v>
       </c>
       <c r="B73" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C73" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D73" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -2354,16 +2429,16 @@
         <v>45</v>
       </c>
       <c r="B74" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C74" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D74" t="s">
-        <v>242</v>
-      </c>
-      <c r="E74" t="s">
-        <v>243</v>
+        <v>188</v>
+      </c>
+      <c r="F74" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -2371,13 +2446,13 @@
         <v>45</v>
       </c>
       <c r="B75" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C75" t="s">
-        <v>194</v>
+        <v>272</v>
       </c>
       <c r="D75" t="s">
-        <v>193</v>
+        <v>239</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -2385,13 +2460,16 @@
         <v>45</v>
       </c>
       <c r="B76" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C76" t="s">
-        <v>275</v>
+        <v>190</v>
       </c>
       <c r="D76" t="s">
-        <v>245</v>
+        <v>240</v>
+      </c>
+      <c r="E76" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -2399,13 +2477,13 @@
         <v>45</v>
       </c>
       <c r="B77" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C77" t="s">
-        <v>276</v>
+        <v>192</v>
       </c>
       <c r="D77" t="s">
-        <v>246</v>
+        <v>191</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -2413,13 +2491,13 @@
         <v>45</v>
       </c>
       <c r="B78" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C78" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D78" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -2427,13 +2505,13 @@
         <v>45</v>
       </c>
       <c r="B79" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C79" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D79" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -2441,33 +2519,30 @@
         <v>45</v>
       </c>
       <c r="B80" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C80" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="D80" t="s">
-        <v>195</v>
-      </c>
-      <c r="F80" t="s">
-        <v>176</v>
+        <v>245</v>
+      </c>
+      <c r="E80" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>45</v>
-      </c>
       <c r="B81" t="s">
-        <v>80</v>
+        <v>296</v>
       </c>
       <c r="C81" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="D81" t="s">
-        <v>249</v>
+        <v>298</v>
       </c>
       <c r="E81" t="s">
-        <v>244</v>
+        <v>295</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -2475,13 +2550,13 @@
         <v>45</v>
       </c>
       <c r="B82" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C82" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="D82" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -2489,58 +2564,61 @@
         <v>45</v>
       </c>
       <c r="B83" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C83" t="s">
-        <v>197</v>
+        <v>277</v>
       </c>
       <c r="D83" t="s">
-        <v>196</v>
+        <v>193</v>
+      </c>
+      <c r="F83" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="B84" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C84" t="s">
-        <v>199</v>
+        <v>278</v>
       </c>
       <c r="D84" t="s">
-        <v>198</v>
-      </c>
-      <c r="F84" t="s">
-        <v>202</v>
+        <v>247</v>
+      </c>
+      <c r="E84" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="B85" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C85" t="s">
-        <v>201</v>
+        <v>279</v>
       </c>
       <c r="D85" t="s">
-        <v>200</v>
+        <v>248</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="B86" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C86" t="s">
-        <v>282</v>
+        <v>195</v>
       </c>
       <c r="D86" t="s">
-        <v>251</v>
+        <v>194</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -2548,13 +2626,19 @@
         <v>83</v>
       </c>
       <c r="B87" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C87" t="s">
-        <v>283</v>
+        <v>197</v>
       </c>
       <c r="D87" t="s">
-        <v>252</v>
+        <v>196</v>
+      </c>
+      <c r="E87" t="s">
+        <v>288</v>
+      </c>
+      <c r="F87" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -2562,13 +2646,55 @@
         <v>83</v>
       </c>
       <c r="B88" t="s">
+        <v>85</v>
+      </c>
+      <c r="C88" t="s">
+        <v>199</v>
+      </c>
+      <c r="D88" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>83</v>
+      </c>
+      <c r="B89" t="s">
+        <v>86</v>
+      </c>
+      <c r="C89" t="s">
+        <v>280</v>
+      </c>
+      <c r="D89" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>83</v>
+      </c>
+      <c r="B90" t="s">
+        <v>87</v>
+      </c>
+      <c r="C90" t="s">
+        <v>281</v>
+      </c>
+      <c r="D90" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>83</v>
+      </c>
+      <c r="B91" t="s">
         <v>88</v>
       </c>
-      <c r="C88" t="s">
-        <v>284</v>
-      </c>
-      <c r="D88" t="s">
-        <v>253</v>
+      <c r="C91" t="s">
+        <v>282</v>
+      </c>
+      <c r="D91" t="s">
+        <v>251</v>
       </c>
     </row>
   </sheetData>

--- a/rtss-mexico/src/main/resources/agriculture/cultures.xlsx
+++ b/rtss-mexico/src/main/resources/agriculture/cultures.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\rtss-mexico\src\main\resources\agriculture\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-mexico\src\main\resources\agriculture\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7608311F-B005-499B-83B9-761006C46C80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25DE9F0D-58A7-4872-AA71-79D4F8714162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12495" yWindow="2715" windowWidth="23355" windowHeight="19110" xr2:uid="{96FB73F9-179D-47FB-B022-0E98E67E2FA8}"/>
+    <workbookView xWindow="91830" yWindow="1125" windowWidth="20220" windowHeight="21360" activeTab="1" xr2:uid="{96FB73F9-179D-47FB-B022-0E98E67E2FA8}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="note" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +24,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="319">
   <si>
     <t>Annual</t>
   </si>
@@ -387,9 +393,6 @@
     <t>овёс зерновой</t>
   </si>
   <si>
-    <t>оnion</t>
-  </si>
-  <si>
     <t>лук</t>
   </si>
   <si>
@@ -486,9 +489,6 @@
     <t>вид репы</t>
   </si>
   <si>
-    <t>mexican turnip</t>
-  </si>
-  <si>
     <t>помидор</t>
   </si>
   <si>
@@ -552,9 +552,6 @@
     <t>оливки</t>
   </si>
   <si>
-    <t>сметанное яблоко</t>
-  </si>
-  <si>
     <t>фрукт</t>
   </si>
   <si>
@@ -567,9 +564,6 @@
     <t>водяной кокос</t>
   </si>
   <si>
-    <t>coconut Copra</t>
-  </si>
-  <si>
     <t>мякоть кокоса</t>
   </si>
   <si>
@@ -696,18 +690,6 @@
     <t>star apple</t>
   </si>
   <si>
-    <t>capulin Cherry</t>
-  </si>
-  <si>
-    <t>almond Plum</t>
-  </si>
-  <si>
-    <t>country Plum</t>
-  </si>
-  <si>
-    <t>coconut Oil</t>
-  </si>
-  <si>
     <t>date</t>
   </si>
   <si>
@@ -946,13 +928,79 @@
   </si>
   <si>
     <t>soy</t>
+  </si>
+  <si>
+    <t>almond plum</t>
+  </si>
+  <si>
+    <t>country plum</t>
+  </si>
+  <si>
+    <t>capulin cherry</t>
+  </si>
+  <si>
+    <t>стручковая фасоль</t>
+  </si>
+  <si>
+    <t>broad bean</t>
+  </si>
+  <si>
+    <t>fava bean</t>
+  </si>
+  <si>
+    <t>красная фасоль</t>
+  </si>
+  <si>
+    <t>ккал/кг</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>beet</t>
+  </si>
+  <si>
+    <t>Калорийность по USA FoodData Central</t>
+  </si>
+  <si>
+    <t>https://fdc.nal.usda.gov</t>
+  </si>
+  <si>
+    <t>onion</t>
+  </si>
+  <si>
+    <t>coconut copra</t>
+  </si>
+  <si>
+    <t>coconut oil</t>
+  </si>
+  <si>
+    <t>калорийность сухого гороха</t>
+  </si>
+  <si>
+    <t>непищевой</t>
+  </si>
+  <si>
+    <t>Atwater Specific Factors wherever available</t>
+  </si>
+  <si>
+    <t>mexican turnip, yambean</t>
+  </si>
+  <si>
+    <t>soybean</t>
+  </si>
+  <si>
+    <t>cocoa beans (raw)</t>
+  </si>
+  <si>
+    <t>сметанное яблоко, cherimoya, chirimoya, cherimolla</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -964,6 +1012,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -986,14 +1042,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1305,1396 +1364,1658 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E948251-FF0B-472B-9D81-A6DF08500BDF}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>314</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{633E3305-6F77-4AD2-85A5-03EE4FA7B135}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5536FC84-276C-47F5-A823-8A76B73F8393}">
-  <dimension ref="A1:F91"/>
+  <dimension ref="A1:G91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="31.28515625" customWidth="1"/>
-    <col min="3" max="3" width="27" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" customWidth="1"/>
-    <col min="5" max="5" width="32.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.05078125" customWidth="1"/>
+    <col min="2" max="2" width="21.26171875" customWidth="1"/>
+    <col min="3" max="3" width="31.26171875" customWidth="1"/>
+    <col min="4" max="4" width="27" customWidth="1"/>
+    <col min="5" max="5" width="21.62890625" customWidth="1"/>
+    <col min="6" max="6" width="32.68359375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>138</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
+        <v>137</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2">
+        <v>1300</v>
       </c>
       <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>93</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>0</v>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3">
+        <v>6310</v>
       </c>
       <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>95</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>96</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>313</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>159</v>
+      </c>
+      <c r="E4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F4" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>161</v>
-      </c>
-      <c r="D4" t="s">
-        <v>162</v>
-      </c>
-      <c r="E4" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>0</v>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5">
+        <v>4000</v>
       </c>
       <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>97</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>0</v>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6">
+        <v>3590</v>
       </c>
       <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>99</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>100</v>
       </c>
-      <c r="E6" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>0</v>
+      <c r="F6" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7">
+        <v>3460</v>
       </c>
       <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
+        <v>126</v>
+      </c>
+      <c r="E7" t="s">
         <v>127</v>
       </c>
-      <c r="D7" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>0</v>
+      <c r="G7" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8">
+        <v>3790</v>
       </c>
       <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
         <v>7</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>117</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>0</v>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9">
+        <v>220</v>
       </c>
       <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>103</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>0</v>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10">
+        <v>410</v>
       </c>
       <c r="B10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
         <v>9</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>105</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>0</v>
+      <c r="F10" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11">
+        <v>320</v>
       </c>
       <c r="B11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
         <v>10</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>108</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>0</v>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12">
+        <v>5510</v>
       </c>
       <c r="B12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
         <v>11</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>110</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>0</v>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13">
+        <v>770</v>
       </c>
       <c r="B13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
         <v>12</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>111</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>0</v>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14">
+        <v>5170</v>
       </c>
       <c r="B14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
         <v>13</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>113</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>114</v>
       </c>
-      <c r="E14" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>0</v>
+      <c r="F14" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15">
+        <v>3520</v>
       </c>
       <c r="B15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s">
         <v>14</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>116</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>0</v>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16">
+        <v>360</v>
       </c>
       <c r="B16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
         <v>15</v>
-      </c>
-      <c r="C16" t="s">
-        <v>119</v>
       </c>
       <c r="D16" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>0</v>
+      <c r="E16" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17">
+        <v>230</v>
       </c>
       <c r="B17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
         <v>16</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
+        <v>119</v>
+      </c>
+      <c r="E17" t="s">
         <v>120</v>
       </c>
-      <c r="D17" t="s">
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18">
+        <v>280</v>
+      </c>
+      <c r="B18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="D18" t="s">
         <v>122</v>
       </c>
-      <c r="C18" t="s">
+      <c r="E18" t="s">
         <v>123</v>
       </c>
-      <c r="D18" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>0</v>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19">
+        <v>810</v>
       </c>
       <c r="B19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" t="s">
         <v>17</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>101</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20">
+        <v>3240</v>
+      </c>
+      <c r="B20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="E20" t="s">
         <v>130</v>
       </c>
-      <c r="D20" t="s">
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21">
+        <v>400</v>
+      </c>
+      <c r="B21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" t="s">
+        <v>293</v>
+      </c>
+      <c r="D21" t="s">
+        <v>292</v>
+      </c>
+      <c r="E21" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22">
+        <v>340</v>
+      </c>
+      <c r="B22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" t="s">
-        <v>301</v>
-      </c>
-      <c r="C21" t="s">
-        <v>300</v>
-      </c>
-      <c r="D21" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="E22" t="s">
         <v>132</v>
       </c>
-      <c r="D22" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>0</v>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23">
+        <v>3330</v>
       </c>
       <c r="B23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" t="s">
         <v>20</v>
-      </c>
-      <c r="C23" t="s">
-        <v>135</v>
       </c>
       <c r="D23" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>0</v>
+      <c r="E23" t="s">
+        <v>133</v>
+      </c>
+      <c r="F23" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24">
+        <v>3640</v>
       </c>
       <c r="B24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" t="s">
         <v>21</v>
-      </c>
-      <c r="C24" t="s">
-        <v>137</v>
       </c>
       <c r="D24" t="s">
         <v>136</v>
       </c>
       <c r="E24" t="s">
-        <v>289</v>
+        <v>135</v>
       </c>
       <c r="F24" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+      <c r="G24" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
-        <v>0</v>
+        <v>313</v>
       </c>
       <c r="B25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" t="s">
         <v>22</v>
-      </c>
-      <c r="C25" t="s">
-        <v>140</v>
       </c>
       <c r="D25" t="s">
         <v>139</v>
       </c>
-      <c r="F25" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>0</v>
+      <c r="E25" t="s">
+        <v>138</v>
+      </c>
+      <c r="G25" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26">
+        <v>3640</v>
       </c>
       <c r="B26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" t="s">
         <v>23</v>
-      </c>
-      <c r="C26" t="s">
-        <v>142</v>
       </c>
       <c r="D26" t="s">
         <v>141</v>
       </c>
-      <c r="F26" t="s">
+      <c r="E26" t="s">
+        <v>140</v>
+      </c>
+      <c r="G26" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27">
+        <v>5710</v>
+      </c>
+      <c r="B27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" t="s">
+        <v>142</v>
+      </c>
+      <c r="E27" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28">
+        <v>880</v>
+      </c>
+      <c r="B28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" t="s">
+        <v>300</v>
+      </c>
+      <c r="E28" t="s">
+        <v>301</v>
+      </c>
+      <c r="F28" t="s">
+        <v>302</v>
+      </c>
+      <c r="G28" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29">
+        <v>380</v>
+      </c>
+      <c r="B29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>144</v>
+      </c>
+      <c r="E29" t="s">
+        <v>26</v>
+      </c>
+      <c r="F29" t="s">
+        <v>315</v>
+      </c>
+      <c r="G29" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" t="s">
-        <v>143</v>
-      </c>
-      <c r="D27" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" t="s">
-        <v>135</v>
-      </c>
-      <c r="D28" t="s">
-        <v>134</v>
-      </c>
-      <c r="F28" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B29" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" t="s">
-        <v>145</v>
-      </c>
-      <c r="D29" t="s">
-        <v>26</v>
-      </c>
-      <c r="E29" t="s">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30">
+        <v>190</v>
+      </c>
+      <c r="B30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>150</v>
+      </c>
+      <c r="E30" t="s">
         <v>151</v>
       </c>
-      <c r="F29" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30" t="s">
-        <v>27</v>
-      </c>
-      <c r="C30" t="s">
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31">
+        <v>140</v>
+      </c>
+      <c r="B31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" t="s">
+        <v>28</v>
+      </c>
+      <c r="D31" t="s">
         <v>152</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E31" t="s">
+        <v>197</v>
+      </c>
+      <c r="F31" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B31" t="s">
-        <v>28</v>
-      </c>
-      <c r="C31" t="s">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32">
+        <v>3510</v>
+      </c>
+      <c r="B32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" t="s">
+        <v>244</v>
+      </c>
+      <c r="E32" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33">
+        <v>5450</v>
+      </c>
+      <c r="B33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33" t="s">
+        <v>245</v>
+      </c>
+      <c r="E33" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" t="s">
+        <v>31</v>
+      </c>
+      <c r="D34" t="s">
         <v>154</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E34" t="s">
+        <v>200</v>
+      </c>
+      <c r="F34" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35">
+        <v>340</v>
+      </c>
+      <c r="B35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" t="s">
+        <v>32</v>
+      </c>
+      <c r="D35" t="s">
+        <v>246</v>
+      </c>
+      <c r="E35" t="s">
         <v>201</v>
       </c>
-      <c r="E31" t="s">
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36">
+        <v>330</v>
+      </c>
+      <c r="B36" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" t="s">
+        <v>33</v>
+      </c>
+      <c r="D36" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>0</v>
-      </c>
-      <c r="B32" t="s">
-        <v>29</v>
-      </c>
-      <c r="C32" t="s">
-        <v>252</v>
-      </c>
-      <c r="D32" t="s">
+      <c r="E36" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B33" t="s">
-        <v>30</v>
-      </c>
-      <c r="C33" t="s">
-        <v>253</v>
-      </c>
-      <c r="D33" t="s">
+      <c r="F36" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37">
+        <v>810</v>
+      </c>
+      <c r="B37" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" t="s">
+        <v>34</v>
+      </c>
+      <c r="D37" t="s">
+        <v>157</v>
+      </c>
+      <c r="E37" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38">
+        <v>140</v>
+      </c>
+      <c r="B38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" t="s">
+        <v>35</v>
+      </c>
+      <c r="D38" t="s">
+        <v>247</v>
+      </c>
+      <c r="E38" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>0</v>
-      </c>
-      <c r="B34" t="s">
-        <v>31</v>
-      </c>
-      <c r="C34" t="s">
-        <v>156</v>
-      </c>
-      <c r="D34" t="s">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39">
+        <v>300</v>
+      </c>
+      <c r="B39" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" t="s">
+        <v>36</v>
+      </c>
+      <c r="D39" t="s">
+        <v>248</v>
+      </c>
+      <c r="E39" t="s">
         <v>204</v>
       </c>
-      <c r="E34" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>0</v>
-      </c>
-      <c r="B35" t="s">
-        <v>32</v>
-      </c>
-      <c r="C35" t="s">
-        <v>254</v>
-      </c>
-      <c r="D35" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>0</v>
-      </c>
-      <c r="B36" t="s">
-        <v>33</v>
-      </c>
-      <c r="C36" t="s">
-        <v>157</v>
-      </c>
-      <c r="D36" t="s">
-        <v>206</v>
-      </c>
-      <c r="E36" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>0</v>
-      </c>
-      <c r="B37" t="s">
-        <v>34</v>
-      </c>
-      <c r="C37" t="s">
-        <v>159</v>
-      </c>
-      <c r="D37" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>0</v>
-      </c>
-      <c r="B38" t="s">
-        <v>35</v>
-      </c>
-      <c r="C38" t="s">
-        <v>255</v>
-      </c>
-      <c r="D38" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>0</v>
-      </c>
-      <c r="B39" t="s">
-        <v>36</v>
-      </c>
-      <c r="C39" t="s">
-        <v>256</v>
-      </c>
-      <c r="D39" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
-        <v>0</v>
+        <v>313</v>
       </c>
       <c r="B40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" t="s">
         <v>37</v>
-      </c>
-      <c r="C40" t="s">
-        <v>126</v>
       </c>
       <c r="D40" t="s">
         <v>125</v>
       </c>
       <c r="E40" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>0</v>
+        <v>124</v>
+      </c>
+      <c r="F40" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41">
+        <v>3410</v>
       </c>
       <c r="B41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41" t="s">
         <v>38</v>
       </c>
-      <c r="C41" t="s">
-        <v>164</v>
-      </c>
       <c r="D41" t="s">
-        <v>209</v>
+        <v>162</v>
       </c>
       <c r="E41" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+      <c r="F41" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
-        <v>0</v>
+        <v>313</v>
       </c>
       <c r="B42" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" t="s">
         <v>39</v>
       </c>
-      <c r="C42" t="s">
-        <v>165</v>
-      </c>
       <c r="D42" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+      <c r="E42" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
-        <v>0</v>
+        <v>313</v>
       </c>
       <c r="B43" t="s">
+        <v>0</v>
+      </c>
+      <c r="C43" t="s">
         <v>40</v>
       </c>
-      <c r="C43" t="s">
-        <v>163</v>
-      </c>
       <c r="D43" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>0</v>
+        <v>161</v>
+      </c>
+      <c r="E43" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44">
+        <v>1470</v>
       </c>
       <c r="B44" t="s">
-        <v>302</v>
+        <v>0</v>
       </c>
       <c r="C44" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="D44" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+        <v>295</v>
+      </c>
+      <c r="E44" t="s">
+        <v>296</v>
+      </c>
+      <c r="F44" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
-        <v>0</v>
+        <v>313</v>
       </c>
       <c r="B45" t="s">
+        <v>0</v>
+      </c>
+      <c r="C45" t="s">
         <v>41</v>
       </c>
-      <c r="C45" t="s">
-        <v>257</v>
-      </c>
       <c r="D45" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>0</v>
+        <v>249</v>
+      </c>
+      <c r="E45" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46">
+        <v>320</v>
       </c>
       <c r="B46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46" t="s">
         <v>42</v>
-      </c>
-      <c r="C46" t="s">
-        <v>168</v>
       </c>
       <c r="D46" t="s">
         <v>166</v>
       </c>
       <c r="E46" t="s">
+        <v>164</v>
+      </c>
+      <c r="F46" t="s">
+        <v>165</v>
+      </c>
+      <c r="G46" t="s">
         <v>167</v>
       </c>
-      <c r="F46" t="s">
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B47" t="s">
+        <v>0</v>
+      </c>
+      <c r="C47" t="s">
+        <v>43</v>
+      </c>
+      <c r="D47" t="s">
+        <v>168</v>
+      </c>
+      <c r="E47" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48">
+        <v>450</v>
+      </c>
+      <c r="B48" t="s">
+        <v>0</v>
+      </c>
+      <c r="C48" t="s">
+        <v>44</v>
+      </c>
+      <c r="D48" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>0</v>
-      </c>
-      <c r="B47" t="s">
-        <v>43</v>
-      </c>
-      <c r="C47" t="s">
+      <c r="E48" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49">
+        <v>1300</v>
+      </c>
+      <c r="B49" t="s">
+        <v>45</v>
+      </c>
+      <c r="C49" t="s">
+        <v>46</v>
+      </c>
+      <c r="D49" t="s">
         <v>170</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E49" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50">
+        <v>2060</v>
+      </c>
+      <c r="B50" t="s">
+        <v>45</v>
+      </c>
+      <c r="C50" t="s">
+        <v>47</v>
+      </c>
+      <c r="D50" t="s">
+        <v>250</v>
+      </c>
+      <c r="E50" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51">
+        <v>750</v>
+      </c>
+      <c r="B51" t="s">
+        <v>45</v>
+      </c>
+      <c r="C51" t="s">
+        <v>48</v>
+      </c>
+      <c r="D51" t="s">
+        <v>251</v>
+      </c>
+      <c r="E51" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>0</v>
-      </c>
-      <c r="B48" t="s">
-        <v>44</v>
-      </c>
-      <c r="C48" t="s">
+      <c r="F51" t="s">
+        <v>318</v>
+      </c>
+      <c r="G51" t="s">
         <v>171</v>
       </c>
-      <c r="D48" t="s">
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52">
+        <v>4640</v>
+      </c>
+      <c r="B52" t="s">
+        <v>45</v>
+      </c>
+      <c r="C52" t="s">
+        <v>49</v>
+      </c>
+      <c r="D52" t="s">
+        <v>252</v>
+      </c>
+      <c r="E52" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>45</v>
-      </c>
-      <c r="B49" t="s">
-        <v>46</v>
-      </c>
-      <c r="C49" t="s">
+      <c r="F52" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53">
+        <v>0</v>
+      </c>
+      <c r="B53" t="s">
+        <v>45</v>
+      </c>
+      <c r="C53" t="s">
+        <v>50</v>
+      </c>
+      <c r="D53" t="s">
+        <v>253</v>
+      </c>
+      <c r="E53" t="s">
+        <v>215</v>
+      </c>
+      <c r="F53" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54">
+        <v>670</v>
+      </c>
+      <c r="B54" t="s">
+        <v>45</v>
+      </c>
+      <c r="C54" t="s">
+        <v>51</v>
+      </c>
+      <c r="D54" t="s">
+        <v>275</v>
+      </c>
+      <c r="E54" t="s">
+        <v>216</v>
+      </c>
+      <c r="G54" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B55" t="s">
+        <v>45</v>
+      </c>
+      <c r="C55" t="s">
+        <v>52</v>
+      </c>
+      <c r="D55" t="s">
         <v>172</v>
       </c>
-      <c r="D49" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>45</v>
-      </c>
-      <c r="B50" t="s">
-        <v>47</v>
-      </c>
-      <c r="C50" t="s">
+      <c r="E55" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B56" t="s">
+        <v>45</v>
+      </c>
+      <c r="C56" t="s">
+        <v>53</v>
+      </c>
+      <c r="D56" t="s">
+        <v>254</v>
+      </c>
+      <c r="E56" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B57" t="s">
+        <v>45</v>
+      </c>
+      <c r="C57" t="s">
+        <v>54</v>
+      </c>
+      <c r="D57" t="s">
+        <v>255</v>
+      </c>
+      <c r="E57" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B58" t="s">
+        <v>45</v>
+      </c>
+      <c r="C58" t="s">
+        <v>55</v>
+      </c>
+      <c r="D58" t="s">
+        <v>174</v>
+      </c>
+      <c r="E58" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B59" t="s">
+        <v>45</v>
+      </c>
+      <c r="C59" t="s">
+        <v>56</v>
+      </c>
+      <c r="D59" t="s">
+        <v>256</v>
+      </c>
+      <c r="E59" t="s">
+        <v>310</v>
+      </c>
+      <c r="G59" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60">
+        <v>8330</v>
+      </c>
+      <c r="B60" t="s">
+        <v>45</v>
+      </c>
+      <c r="C60" t="s">
+        <v>57</v>
+      </c>
+      <c r="D60" t="s">
+        <v>257</v>
+      </c>
+      <c r="E60" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61">
+        <v>430</v>
+      </c>
+      <c r="B61" t="s">
+        <v>45</v>
+      </c>
+      <c r="C61" t="s">
+        <v>58</v>
+      </c>
+      <c r="D61" t="s">
+        <v>177</v>
+      </c>
+      <c r="E61" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B62" t="s">
+        <v>45</v>
+      </c>
+      <c r="C62" t="s">
+        <v>59</v>
+      </c>
+      <c r="D62" t="s">
+        <v>178</v>
+      </c>
+      <c r="E62" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63">
+        <v>420</v>
+      </c>
+      <c r="B63" t="s">
+        <v>45</v>
+      </c>
+      <c r="C63" t="s">
+        <v>60</v>
+      </c>
+      <c r="D63" t="s">
         <v>258</v>
       </c>
-      <c r="D50" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>45</v>
-      </c>
-      <c r="B51" t="s">
-        <v>48</v>
-      </c>
-      <c r="C51" t="s">
+      <c r="E63" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B64" t="s">
+        <v>45</v>
+      </c>
+      <c r="C64" t="s">
+        <v>61</v>
+      </c>
+      <c r="D64" t="s">
+        <v>179</v>
+      </c>
+      <c r="E64" t="s">
+        <v>219</v>
+      </c>
+      <c r="F64" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B65" t="s">
+        <v>45</v>
+      </c>
+      <c r="C65" t="s">
+        <v>62</v>
+      </c>
+      <c r="D65" t="s">
         <v>259</v>
       </c>
-      <c r="D51" t="s">
-        <v>217</v>
-      </c>
-      <c r="E51" t="s">
-        <v>173</v>
-      </c>
-      <c r="F51" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>45</v>
-      </c>
-      <c r="B52" t="s">
-        <v>49</v>
-      </c>
-      <c r="C52" t="s">
+      <c r="E65" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66">
+        <v>2490</v>
+      </c>
+      <c r="B66" t="s">
+        <v>45</v>
+      </c>
+      <c r="C66" t="s">
+        <v>63</v>
+      </c>
+      <c r="D66" t="s">
+        <v>180</v>
+      </c>
+      <c r="E66" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B67" t="s">
+        <v>45</v>
+      </c>
+      <c r="C67" t="s">
+        <v>64</v>
+      </c>
+      <c r="D67" t="s">
         <v>260</v>
       </c>
-      <c r="D52" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>45</v>
-      </c>
-      <c r="B53" t="s">
-        <v>50</v>
-      </c>
-      <c r="C53" t="s">
+      <c r="E67" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B68" t="s">
+        <v>45</v>
+      </c>
+      <c r="C68" t="s">
+        <v>65</v>
+      </c>
+      <c r="D68" t="s">
         <v>261</v>
       </c>
-      <c r="D53" t="s">
-        <v>219</v>
-      </c>
-      <c r="E53" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>45</v>
-      </c>
-      <c r="B54" t="s">
-        <v>51</v>
-      </c>
-      <c r="C54" t="s">
-        <v>283</v>
-      </c>
-      <c r="D54" t="s">
-        <v>220</v>
-      </c>
-      <c r="F54" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>45</v>
-      </c>
-      <c r="B55" t="s">
-        <v>52</v>
-      </c>
-      <c r="C55" t="s">
-        <v>175</v>
-      </c>
-      <c r="D55" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>45</v>
-      </c>
-      <c r="B56" t="s">
-        <v>53</v>
-      </c>
-      <c r="C56" t="s">
+      <c r="E68" t="s">
+        <v>224</v>
+      </c>
+      <c r="F68" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B69" t="s">
+        <v>45</v>
+      </c>
+      <c r="C69" t="s">
+        <v>66</v>
+      </c>
+      <c r="D69" t="s">
+        <v>181</v>
+      </c>
+      <c r="E69" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A70">
+        <v>710</v>
+      </c>
+      <c r="B70" t="s">
+        <v>45</v>
+      </c>
+      <c r="C70" t="s">
+        <v>67</v>
+      </c>
+      <c r="D70" t="s">
+        <v>182</v>
+      </c>
+      <c r="E70" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A71">
+        <v>5330</v>
+      </c>
+      <c r="B71" t="s">
+        <v>45</v>
+      </c>
+      <c r="C71" t="s">
+        <v>68</v>
+      </c>
+      <c r="D71" t="s">
         <v>262</v>
       </c>
-      <c r="D56" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>45</v>
-      </c>
-      <c r="B57" t="s">
-        <v>54</v>
-      </c>
-      <c r="C57" t="s">
+      <c r="E71" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A72">
+        <v>560</v>
+      </c>
+      <c r="B72" t="s">
+        <v>45</v>
+      </c>
+      <c r="C72" t="s">
+        <v>69</v>
+      </c>
+      <c r="D72" t="s">
+        <v>183</v>
+      </c>
+      <c r="E72" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B73" t="s">
+        <v>45</v>
+      </c>
+      <c r="C73" t="s">
+        <v>70</v>
+      </c>
+      <c r="D73" t="s">
         <v>263</v>
       </c>
-      <c r="D57" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>45</v>
-      </c>
-      <c r="B58" t="s">
-        <v>55</v>
-      </c>
-      <c r="C58" t="s">
-        <v>177</v>
-      </c>
-      <c r="D58" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>45</v>
-      </c>
-      <c r="B59" t="s">
-        <v>56</v>
-      </c>
-      <c r="C59" t="s">
+      <c r="E73" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B74" t="s">
+        <v>45</v>
+      </c>
+      <c r="C74" t="s">
+        <v>71</v>
+      </c>
+      <c r="D74" t="s">
+        <v>185</v>
+      </c>
+      <c r="E74" t="s">
+        <v>184</v>
+      </c>
+      <c r="G74" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A75">
+        <v>470</v>
+      </c>
+      <c r="B75" t="s">
+        <v>45</v>
+      </c>
+      <c r="C75" t="s">
+        <v>72</v>
+      </c>
+      <c r="D75" t="s">
         <v>264</v>
       </c>
-      <c r="D59" t="s">
-        <v>178</v>
-      </c>
-      <c r="F59" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>45</v>
-      </c>
-      <c r="B60" t="s">
-        <v>57</v>
-      </c>
-      <c r="C60" t="s">
+      <c r="E75" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A76">
+        <v>6790</v>
+      </c>
+      <c r="B76" t="s">
+        <v>45</v>
+      </c>
+      <c r="C76" t="s">
+        <v>73</v>
+      </c>
+      <c r="D76" t="s">
+        <v>186</v>
+      </c>
+      <c r="E76" t="s">
+        <v>232</v>
+      </c>
+      <c r="F76" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A77">
+        <v>7000</v>
+      </c>
+      <c r="B77" t="s">
+        <v>45</v>
+      </c>
+      <c r="C77" t="s">
+        <v>74</v>
+      </c>
+      <c r="D77" t="s">
+        <v>188</v>
+      </c>
+      <c r="E77" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B78" t="s">
+        <v>45</v>
+      </c>
+      <c r="C78" t="s">
+        <v>75</v>
+      </c>
+      <c r="D78" t="s">
         <v>265</v>
       </c>
-      <c r="D60" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>45</v>
-      </c>
-      <c r="B61" t="s">
-        <v>58</v>
-      </c>
-      <c r="C61" t="s">
-        <v>181</v>
-      </c>
-      <c r="D61" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>45</v>
-      </c>
-      <c r="B62" t="s">
-        <v>59</v>
-      </c>
-      <c r="C62" t="s">
-        <v>182</v>
-      </c>
-      <c r="D62" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>45</v>
-      </c>
-      <c r="B63" t="s">
-        <v>60</v>
-      </c>
-      <c r="C63" t="s">
+      <c r="E78" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A79">
+        <v>570</v>
+      </c>
+      <c r="B79" t="s">
+        <v>45</v>
+      </c>
+      <c r="C79" t="s">
+        <v>76</v>
+      </c>
+      <c r="D79" t="s">
         <v>266</v>
       </c>
-      <c r="D63" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>45</v>
-      </c>
-      <c r="B64" t="s">
-        <v>61</v>
-      </c>
-      <c r="C64" t="s">
-        <v>183</v>
-      </c>
-      <c r="D64" t="s">
-        <v>227</v>
-      </c>
-      <c r="E64" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>45</v>
-      </c>
-      <c r="B65" t="s">
-        <v>62</v>
-      </c>
-      <c r="C65" t="s">
+      <c r="E79" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A80">
+        <v>1230</v>
+      </c>
+      <c r="B80" t="s">
+        <v>45</v>
+      </c>
+      <c r="C80" t="s">
+        <v>77</v>
+      </c>
+      <c r="D80" t="s">
         <v>267</v>
       </c>
-      <c r="D65" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>45</v>
-      </c>
-      <c r="B66" t="s">
-        <v>63</v>
-      </c>
-      <c r="C66" t="s">
-        <v>184</v>
-      </c>
-      <c r="D66" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>45</v>
-      </c>
-      <c r="B67" t="s">
-        <v>64</v>
-      </c>
-      <c r="C67" t="s">
+      <c r="E80" t="s">
+        <v>237</v>
+      </c>
+      <c r="F80" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C81" t="s">
+        <v>288</v>
+      </c>
+      <c r="D81" t="s">
+        <v>289</v>
+      </c>
+      <c r="E81" t="s">
+        <v>290</v>
+      </c>
+      <c r="F81" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B82" t="s">
+        <v>45</v>
+      </c>
+      <c r="C82" t="s">
+        <v>78</v>
+      </c>
+      <c r="D82" t="s">
         <v>268</v>
       </c>
-      <c r="D67" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>45</v>
-      </c>
-      <c r="B68" t="s">
-        <v>65</v>
-      </c>
-      <c r="C68" t="s">
+      <c r="E82" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B83" t="s">
+        <v>45</v>
+      </c>
+      <c r="C83" t="s">
+        <v>79</v>
+      </c>
+      <c r="D83" t="s">
         <v>269</v>
       </c>
-      <c r="D68" t="s">
-        <v>232</v>
-      </c>
-      <c r="E68" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>45</v>
-      </c>
-      <c r="B69" t="s">
-        <v>66</v>
-      </c>
-      <c r="C69" t="s">
-        <v>185</v>
-      </c>
-      <c r="D69" t="s">
+      <c r="E83" t="s">
+        <v>189</v>
+      </c>
+      <c r="G83" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B84" t="s">
+        <v>45</v>
+      </c>
+      <c r="C84" t="s">
+        <v>80</v>
+      </c>
+      <c r="D84" t="s">
+        <v>270</v>
+      </c>
+      <c r="E84" t="s">
+        <v>239</v>
+      </c>
+      <c r="F84" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>45</v>
-      </c>
-      <c r="B70" t="s">
-        <v>67</v>
-      </c>
-      <c r="C70" t="s">
-        <v>186</v>
-      </c>
-      <c r="D70" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>45</v>
-      </c>
-      <c r="B71" t="s">
-        <v>68</v>
-      </c>
-      <c r="C71" t="s">
-        <v>270</v>
-      </c>
-      <c r="D71" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>45</v>
-      </c>
-      <c r="B72" t="s">
-        <v>69</v>
-      </c>
-      <c r="C72" t="s">
-        <v>187</v>
-      </c>
-      <c r="D72" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>45</v>
-      </c>
-      <c r="B73" t="s">
-        <v>70</v>
-      </c>
-      <c r="C73" t="s">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A85">
+        <v>750</v>
+      </c>
+      <c r="B85" t="s">
+        <v>45</v>
+      </c>
+      <c r="C85" t="s">
+        <v>81</v>
+      </c>
+      <c r="D85" t="s">
         <v>271</v>
       </c>
-      <c r="D73" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>45</v>
-      </c>
-      <c r="B74" t="s">
-        <v>71</v>
-      </c>
-      <c r="C74" t="s">
-        <v>189</v>
-      </c>
-      <c r="D74" t="s">
-        <v>188</v>
-      </c>
-      <c r="F74" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>45</v>
-      </c>
-      <c r="B75" t="s">
-        <v>72</v>
-      </c>
-      <c r="C75" t="s">
+      <c r="E85" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B86" t="s">
+        <v>45</v>
+      </c>
+      <c r="C86" t="s">
+        <v>82</v>
+      </c>
+      <c r="D86" t="s">
+        <v>191</v>
+      </c>
+      <c r="E86" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A87" t="s">
+        <v>305</v>
+      </c>
+      <c r="B87" t="s">
+        <v>83</v>
+      </c>
+      <c r="C87" t="s">
+        <v>84</v>
+      </c>
+      <c r="D87" t="s">
+        <v>193</v>
+      </c>
+      <c r="E87" t="s">
+        <v>192</v>
+      </c>
+      <c r="F87" t="s">
+        <v>280</v>
+      </c>
+      <c r="G87" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A88">
+        <v>3850</v>
+      </c>
+      <c r="B88" t="s">
+        <v>83</v>
+      </c>
+      <c r="C88" t="s">
+        <v>85</v>
+      </c>
+      <c r="D88" t="s">
+        <v>195</v>
+      </c>
+      <c r="E88" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A89">
+        <v>240</v>
+      </c>
+      <c r="B89" t="s">
+        <v>83</v>
+      </c>
+      <c r="C89" t="s">
+        <v>86</v>
+      </c>
+      <c r="D89" t="s">
         <v>272</v>
       </c>
-      <c r="D75" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>45</v>
-      </c>
-      <c r="B76" t="s">
-        <v>73</v>
-      </c>
-      <c r="C76" t="s">
-        <v>190</v>
-      </c>
-      <c r="D76" t="s">
-        <v>240</v>
-      </c>
-      <c r="E76" t="s">
+      <c r="E89" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>45</v>
-      </c>
-      <c r="B77" t="s">
-        <v>74</v>
-      </c>
-      <c r="C77" t="s">
-        <v>192</v>
-      </c>
-      <c r="D77" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>45</v>
-      </c>
-      <c r="B78" t="s">
-        <v>75</v>
-      </c>
-      <c r="C78" t="s">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A90">
+        <v>330</v>
+      </c>
+      <c r="B90" t="s">
+        <v>83</v>
+      </c>
+      <c r="C90" t="s">
+        <v>87</v>
+      </c>
+      <c r="D90" t="s">
         <v>273</v>
       </c>
-      <c r="D78" t="s">
+      <c r="E90" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A91">
+        <v>540</v>
+      </c>
+      <c r="B91" t="s">
+        <v>83</v>
+      </c>
+      <c r="C91" t="s">
+        <v>88</v>
+      </c>
+      <c r="D91" t="s">
+        <v>274</v>
+      </c>
+      <c r="E91" t="s">
         <v>243</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>45</v>
-      </c>
-      <c r="B79" t="s">
-        <v>76</v>
-      </c>
-      <c r="C79" t="s">
-        <v>274</v>
-      </c>
-      <c r="D79" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>45</v>
-      </c>
-      <c r="B80" t="s">
-        <v>77</v>
-      </c>
-      <c r="C80" t="s">
-        <v>275</v>
-      </c>
-      <c r="D80" t="s">
-        <v>245</v>
-      </c>
-      <c r="E80" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B81" t="s">
-        <v>296</v>
-      </c>
-      <c r="C81" t="s">
-        <v>297</v>
-      </c>
-      <c r="D81" t="s">
-        <v>298</v>
-      </c>
-      <c r="E81" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>45</v>
-      </c>
-      <c r="B82" t="s">
-        <v>78</v>
-      </c>
-      <c r="C82" t="s">
-        <v>276</v>
-      </c>
-      <c r="D82" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>45</v>
-      </c>
-      <c r="B83" t="s">
-        <v>79</v>
-      </c>
-      <c r="C83" t="s">
-        <v>277</v>
-      </c>
-      <c r="D83" t="s">
-        <v>193</v>
-      </c>
-      <c r="F83" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>45</v>
-      </c>
-      <c r="B84" t="s">
-        <v>80</v>
-      </c>
-      <c r="C84" t="s">
-        <v>278</v>
-      </c>
-      <c r="D84" t="s">
-        <v>247</v>
-      </c>
-      <c r="E84" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>45</v>
-      </c>
-      <c r="B85" t="s">
-        <v>81</v>
-      </c>
-      <c r="C85" t="s">
-        <v>279</v>
-      </c>
-      <c r="D85" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>45</v>
-      </c>
-      <c r="B86" t="s">
-        <v>82</v>
-      </c>
-      <c r="C86" t="s">
-        <v>195</v>
-      </c>
-      <c r="D86" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>83</v>
-      </c>
-      <c r="B87" t="s">
-        <v>84</v>
-      </c>
-      <c r="C87" t="s">
-        <v>197</v>
-      </c>
-      <c r="D87" t="s">
-        <v>196</v>
-      </c>
-      <c r="E87" t="s">
-        <v>288</v>
-      </c>
-      <c r="F87" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>83</v>
-      </c>
-      <c r="B88" t="s">
-        <v>85</v>
-      </c>
-      <c r="C88" t="s">
-        <v>199</v>
-      </c>
-      <c r="D88" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>83</v>
-      </c>
-      <c r="B89" t="s">
-        <v>86</v>
-      </c>
-      <c r="C89" t="s">
-        <v>280</v>
-      </c>
-      <c r="D89" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>83</v>
-      </c>
-      <c r="B90" t="s">
-        <v>87</v>
-      </c>
-      <c r="C90" t="s">
-        <v>281</v>
-      </c>
-      <c r="D90" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>83</v>
-      </c>
-      <c r="B91" t="s">
-        <v>88</v>
-      </c>
-      <c r="C91" t="s">
-        <v>282</v>
-      </c>
-      <c r="D91" t="s">
-        <v>251</v>
       </c>
     </row>
   </sheetData>

--- a/rtss-mexico/src/main/resources/agriculture/cultures.xlsx
+++ b/rtss-mexico/src/main/resources/agriculture/cultures.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-mexico\src\main\resources\agriculture\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25DE9F0D-58A7-4872-AA71-79D4F8714162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B454B70-FBCB-4911-9DD8-8CB3E1EDB8C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="91830" yWindow="1125" windowWidth="20220" windowHeight="21360" activeTab="1" xr2:uid="{96FB73F9-179D-47FB-B022-0E98E67E2FA8}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="322">
   <si>
     <t>Annual</t>
   </si>
@@ -558,15 +558,6 @@
     <t>вишня капулин</t>
   </si>
   <si>
-    <t>water coconut</t>
-  </si>
-  <si>
-    <t>водяной кокос</t>
-  </si>
-  <si>
-    <t>мякоть кокоса</t>
-  </si>
-  <si>
     <t>apricot</t>
   </si>
   <si>
@@ -994,6 +985,24 @@
   </si>
   <si>
     <t>сметанное яблоко, cherimoya, chirimoya, cherimolla</t>
+  </si>
+  <si>
+    <t>fresh dates, raw dates</t>
+  </si>
+  <si>
+    <t>coconut meat</t>
+  </si>
+  <si>
+    <t>мякоть кокоса сушёная</t>
+  </si>
+  <si>
+    <t>кокосы целые</t>
+  </si>
+  <si>
+    <t>coconuts</t>
+  </si>
+  <si>
+    <t>mexican hawthorn, hawthorn tejocote</t>
   </si>
 </sst>
 </file>
@@ -1046,10 +1055,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1375,17 +1387,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
   </sheetData>
@@ -1400,8 +1412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5536FC84-276C-47F5-A823-8A76B73F8393}">
   <dimension ref="A1:G91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1415,22 +1427,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>137</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -1471,12 +1483,12 @@
         <v>96</v>
       </c>
       <c r="F3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
@@ -1491,7 +1503,7 @@
         <v>160</v>
       </c>
       <c r="F4" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1528,7 +1540,7 @@
         <v>100</v>
       </c>
       <c r="F6" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1548,7 +1560,7 @@
         <v>127</v>
       </c>
       <c r="G7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1602,7 +1614,7 @@
         <v>106</v>
       </c>
       <c r="F10" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1673,7 +1685,7 @@
         <v>114</v>
       </c>
       <c r="F14" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1707,7 +1719,7 @@
         <v>118</v>
       </c>
       <c r="E16" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1786,13 +1798,13 @@
         <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D21" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E21" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1829,7 +1841,7 @@
         <v>133</v>
       </c>
       <c r="F23" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1849,7 +1861,7 @@
         <v>135</v>
       </c>
       <c r="F24" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="G24" t="s">
         <v>147</v>
@@ -1857,7 +1869,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B25" t="s">
         <v>0</v>
@@ -1923,13 +1935,13 @@
         <v>25</v>
       </c>
       <c r="D28" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E28" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F28" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G28" t="s">
         <v>146</v>
@@ -1952,7 +1964,7 @@
         <v>26</v>
       </c>
       <c r="F29" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="G29" t="s">
         <v>149</v>
@@ -1989,7 +2001,7 @@
         <v>152</v>
       </c>
       <c r="E31" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F31" t="s">
         <v>153</v>
@@ -2006,10 +2018,10 @@
         <v>29</v>
       </c>
       <c r="D32" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E32" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2023,10 +2035,10 @@
         <v>30</v>
       </c>
       <c r="D33" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E33" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2040,10 +2052,10 @@
         <v>154</v>
       </c>
       <c r="E34" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F34" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2057,10 +2069,10 @@
         <v>32</v>
       </c>
       <c r="D35" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E35" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2077,7 +2089,7 @@
         <v>155</v>
       </c>
       <c r="E36" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F36" t="s">
         <v>156</v>
@@ -2111,10 +2123,10 @@
         <v>35</v>
       </c>
       <c r="D38" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E38" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2128,15 +2140,15 @@
         <v>36</v>
       </c>
       <c r="D39" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E39" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B40" t="s">
         <v>0</v>
@@ -2151,7 +2163,7 @@
         <v>124</v>
       </c>
       <c r="F40" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2168,15 +2180,15 @@
         <v>162</v>
       </c>
       <c r="E41" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F41" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B42" t="s">
         <v>0</v>
@@ -2188,12 +2200,12 @@
         <v>163</v>
       </c>
       <c r="E42" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B43" t="s">
         <v>0</v>
@@ -2205,7 +2217,7 @@
         <v>161</v>
       </c>
       <c r="E43" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2216,21 +2228,21 @@
         <v>0</v>
       </c>
       <c r="C44" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D44" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E44" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F44" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B45" t="s">
         <v>0</v>
@@ -2239,10 +2251,10 @@
         <v>41</v>
       </c>
       <c r="D45" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E45" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2279,7 +2291,7 @@
         <v>168</v>
       </c>
       <c r="E47" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2296,7 +2308,7 @@
         <v>169</v>
       </c>
       <c r="E48" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2313,7 +2325,7 @@
         <v>170</v>
       </c>
       <c r="E49" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2327,10 +2339,10 @@
         <v>47</v>
       </c>
       <c r="D50" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E50" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2344,13 +2356,13 @@
         <v>48</v>
       </c>
       <c r="D51" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E51" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F51" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G51" t="s">
         <v>171</v>
@@ -2367,13 +2379,13 @@
         <v>49</v>
       </c>
       <c r="D52" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E52" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F52" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2387,13 +2399,13 @@
         <v>50</v>
       </c>
       <c r="D53" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E53" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F53" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2407,16 +2419,19 @@
         <v>51</v>
       </c>
       <c r="D54" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="E54" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G54" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55">
+        <v>680</v>
+      </c>
       <c r="B55" t="s">
         <v>45</v>
       </c>
@@ -2427,10 +2442,13 @@
         <v>172</v>
       </c>
       <c r="E55" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56">
+        <v>530</v>
+      </c>
       <c r="B56" t="s">
         <v>45</v>
       </c>
@@ -2438,13 +2456,16 @@
         <v>53</v>
       </c>
       <c r="D56" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E56" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57">
+        <v>530</v>
+      </c>
       <c r="B57" t="s">
         <v>45</v>
       </c>
@@ -2452,13 +2473,16 @@
         <v>54</v>
       </c>
       <c r="D57" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E57" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58">
+        <v>1000</v>
+      </c>
       <c r="B58" t="s">
         <v>45</v>
       </c>
@@ -2466,13 +2490,16 @@
         <v>55</v>
       </c>
       <c r="D58" t="s">
-        <v>174</v>
+        <v>319</v>
       </c>
       <c r="E58" t="s">
-        <v>173</v>
+        <v>320</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59">
+        <v>6600</v>
+      </c>
       <c r="B59" t="s">
         <v>45</v>
       </c>
@@ -2480,13 +2507,16 @@
         <v>56</v>
       </c>
       <c r="D59" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E59" t="s">
-        <v>310</v>
+        <v>317</v>
+      </c>
+      <c r="F59" t="s">
+        <v>307</v>
       </c>
       <c r="G59" t="s">
-        <v>175</v>
+        <v>318</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2500,10 +2530,10 @@
         <v>57</v>
       </c>
       <c r="D60" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E60" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2517,13 +2547,16 @@
         <v>58</v>
       </c>
       <c r="D61" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E61" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62">
+        <v>1450</v>
+      </c>
       <c r="B62" t="s">
         <v>45</v>
       </c>
@@ -2531,10 +2564,13 @@
         <v>59</v>
       </c>
       <c r="D62" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E62" t="s">
-        <v>217</v>
+        <v>214</v>
+      </c>
+      <c r="F62" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2548,13 +2584,16 @@
         <v>60</v>
       </c>
       <c r="D63" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E63" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64">
+        <v>830</v>
+      </c>
       <c r="B64" t="s">
         <v>45</v>
       </c>
@@ -2562,16 +2601,19 @@
         <v>61</v>
       </c>
       <c r="D64" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E64" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F64" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65">
+        <v>680</v>
+      </c>
       <c r="B65" t="s">
         <v>45</v>
       </c>
@@ -2579,10 +2621,10 @@
         <v>62</v>
       </c>
       <c r="D65" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E65" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2596,13 +2638,16 @@
         <v>63</v>
       </c>
       <c r="D66" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E66" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A67">
+        <v>300</v>
+      </c>
       <c r="B67" t="s">
         <v>45</v>
       </c>
@@ -2610,13 +2655,16 @@
         <v>64</v>
       </c>
       <c r="D67" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E67" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68">
+        <v>290</v>
+      </c>
       <c r="B68" t="s">
         <v>45</v>
       </c>
@@ -2624,16 +2672,19 @@
         <v>65</v>
       </c>
       <c r="D68" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E68" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F68" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69">
+        <v>1240</v>
+      </c>
       <c r="B69" t="s">
         <v>45</v>
       </c>
@@ -2641,10 +2692,10 @@
         <v>66</v>
       </c>
       <c r="D69" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E69" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2658,10 +2709,10 @@
         <v>67</v>
       </c>
       <c r="D70" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E70" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2675,10 +2726,10 @@
         <v>68</v>
       </c>
       <c r="D71" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E71" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2692,13 +2743,16 @@
         <v>69</v>
       </c>
       <c r="D72" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E72" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A73">
+        <v>570</v>
+      </c>
       <c r="B73" t="s">
         <v>45</v>
       </c>
@@ -2706,13 +2760,16 @@
         <v>70</v>
       </c>
       <c r="D73" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E73" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A74">
+        <v>730</v>
+      </c>
       <c r="B74" t="s">
         <v>45</v>
       </c>
@@ -2720,10 +2777,10 @@
         <v>71</v>
       </c>
       <c r="D74" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E74" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G74" t="s">
         <v>171</v>
@@ -2740,10 +2797,10 @@
         <v>72</v>
       </c>
       <c r="D75" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E75" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2757,13 +2814,13 @@
         <v>73</v>
       </c>
       <c r="D76" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E76" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F76" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2777,13 +2834,16 @@
         <v>74</v>
       </c>
       <c r="D77" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E77" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A78">
+        <v>430</v>
+      </c>
       <c r="B78" t="s">
         <v>45</v>
       </c>
@@ -2791,10 +2851,10 @@
         <v>75</v>
       </c>
       <c r="D78" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E78" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2808,10 +2868,10 @@
         <v>76</v>
       </c>
       <c r="D79" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="E79" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2825,30 +2885,39 @@
         <v>77</v>
       </c>
       <c r="D80" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E80" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F80" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A81">
+        <v>1230</v>
+      </c>
+      <c r="B81" t="s">
+        <v>45</v>
+      </c>
+      <c r="C81" t="s">
+        <v>285</v>
+      </c>
+      <c r="D81" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="C81" t="s">
-        <v>288</v>
-      </c>
-      <c r="D81" t="s">
-        <v>289</v>
-      </c>
       <c r="E81" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="F81" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A82">
+        <v>2390</v>
+      </c>
       <c r="B82" t="s">
         <v>45</v>
       </c>
@@ -2856,13 +2925,16 @@
         <v>78</v>
       </c>
       <c r="D82" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E82" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A83">
+        <v>1060</v>
+      </c>
       <c r="B83" t="s">
         <v>45</v>
       </c>
@@ -2870,16 +2942,22 @@
         <v>79</v>
       </c>
       <c r="D83" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E83" t="s">
-        <v>189</v>
+        <v>186</v>
+      </c>
+      <c r="F83" t="s">
+        <v>321</v>
       </c>
       <c r="G83" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A84">
+        <v>330</v>
+      </c>
       <c r="B84" t="s">
         <v>45</v>
       </c>
@@ -2887,13 +2965,13 @@
         <v>80</v>
       </c>
       <c r="D84" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E84" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F84" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2907,13 +2985,16 @@
         <v>81</v>
       </c>
       <c r="D85" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E85" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A86">
+        <v>2890</v>
+      </c>
       <c r="B86" t="s">
         <v>45</v>
       </c>
@@ -2921,15 +3002,15 @@
         <v>82</v>
       </c>
       <c r="D86" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E86" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B87" t="s">
         <v>83</v>
@@ -2938,16 +3019,16 @@
         <v>84</v>
       </c>
       <c r="D87" t="s">
+        <v>190</v>
+      </c>
+      <c r="E87" t="s">
+        <v>189</v>
+      </c>
+      <c r="F87" t="s">
+        <v>277</v>
+      </c>
+      <c r="G87" t="s">
         <v>193</v>
-      </c>
-      <c r="E87" t="s">
-        <v>192</v>
-      </c>
-      <c r="F87" t="s">
-        <v>280</v>
-      </c>
-      <c r="G87" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2961,10 +3042,10 @@
         <v>85</v>
       </c>
       <c r="D88" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E88" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2978,10 +3059,10 @@
         <v>86</v>
       </c>
       <c r="D89" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="E89" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2995,10 +3076,10 @@
         <v>87</v>
       </c>
       <c r="D90" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E90" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -3012,10 +3093,10 @@
         <v>88</v>
       </c>
       <c r="D91" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="E91" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>

--- a/rtss-mexico/src/main/resources/agriculture/cultures.xlsx
+++ b/rtss-mexico/src/main/resources/agriculture/cultures.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-mexico\src\main\resources\agriculture\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\rtss-mexico\src\main\resources\agriculture\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B454B70-FBCB-4911-9DD8-8CB3E1EDB8C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{610FD65F-7D7F-419A-922B-775A8C3CE47A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="91830" yWindow="1125" windowWidth="20220" windowHeight="21360" activeTab="1" xr2:uid="{96FB73F9-179D-47FB-B022-0E98E67E2FA8}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="38520" windowHeight="23700" activeTab="1" xr2:uid="{96FB73F9-179D-47FB-B022-0E98E67E2FA8}"/>
   </bookViews>
   <sheets>
     <sheet name="note" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,12 +24,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="326">
   <si>
     <t>Annual</t>
   </si>
@@ -867,9 +862,6 @@
     <t>кукуруза,maíz</t>
   </si>
   <si>
-    <t>sorgo (grano)</t>
-  </si>
-  <si>
     <t>caña de azúcar</t>
   </si>
   <si>
@@ -879,18 +871,12 @@
     <t>semilla de algodón</t>
   </si>
   <si>
-    <t>arroz palay</t>
-  </si>
-  <si>
     <t>algodón (pluma)</t>
   </si>
   <si>
     <t>café</t>
   </si>
   <si>
-    <t>plátano</t>
-  </si>
-  <si>
     <t>plátano roatán</t>
   </si>
   <si>
@@ -1003,6 +989,27 @@
   </si>
   <si>
     <t>mexican hawthorn, hawthorn tejocote</t>
+  </si>
+  <si>
+    <t>ячмень</t>
+  </si>
+  <si>
+    <t>плантаны другие</t>
+  </si>
+  <si>
+    <t>plantains other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plátanos Otros </t>
+  </si>
+  <si>
+    <t>sorgo (grano), сорго (зерно)</t>
+  </si>
+  <si>
+    <t>arroz palay = рис сырец, azzor pulido/limpio = чищенный рис, коэффициент перевода 0.66</t>
+  </si>
+  <si>
+    <t>plátano, плантаны разные</t>
   </si>
 </sst>
 </file>
@@ -1383,21 +1390,21 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -1410,25 +1417,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5536FC84-276C-47F5-A823-8A76B73F8393}">
-  <dimension ref="A1:G91"/>
+  <dimension ref="A1:G92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="F80" sqref="F80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.05078125" customWidth="1"/>
-    <col min="2" max="2" width="21.26171875" customWidth="1"/>
-    <col min="3" max="3" width="31.26171875" customWidth="1"/>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" customWidth="1"/>
+    <col min="3" max="3" width="31.28515625" customWidth="1"/>
     <col min="4" max="4" width="27" customWidth="1"/>
-    <col min="5" max="5" width="21.62890625" customWidth="1"/>
-    <col min="6" max="6" width="32.68359375" customWidth="1"/>
+    <col min="5" max="5" width="21.5703125" customWidth="1"/>
+    <col min="6" max="6" width="32.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>89</v>
@@ -1449,7 +1456,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1300</v>
       </c>
@@ -1466,7 +1473,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>6310</v>
       </c>
@@ -1486,9 +1493,9 @@
         <v>273</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
@@ -1503,10 +1510,10 @@
         <v>160</v>
       </c>
       <c r="F4" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4000</v>
       </c>
@@ -1523,7 +1530,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3590</v>
       </c>
@@ -1539,11 +1546,11 @@
       <c r="E6" t="s">
         <v>100</v>
       </c>
-      <c r="F6" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3460</v>
       </c>
@@ -1560,10 +1567,10 @@
         <v>127</v>
       </c>
       <c r="G7" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3790</v>
       </c>
@@ -1580,7 +1587,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>220</v>
       </c>
@@ -1597,7 +1604,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>410</v>
       </c>
@@ -1614,10 +1621,10 @@
         <v>106</v>
       </c>
       <c r="F10" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>320</v>
       </c>
@@ -1634,7 +1641,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>5510</v>
       </c>
@@ -1651,7 +1658,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>770</v>
       </c>
@@ -1668,7 +1675,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>5170</v>
       </c>
@@ -1688,7 +1695,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>3520</v>
       </c>
@@ -1704,8 +1711,11 @@
       <c r="E15" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F15" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>360</v>
       </c>
@@ -1719,10 +1729,10 @@
         <v>118</v>
       </c>
       <c r="E16" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>230</v>
       </c>
@@ -1739,7 +1749,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>280</v>
       </c>
@@ -1756,7 +1766,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>810</v>
       </c>
@@ -1773,7 +1783,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>3240</v>
       </c>
@@ -1790,7 +1800,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>400</v>
       </c>
@@ -1798,16 +1808,16 @@
         <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D21" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="E21" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>340</v>
       </c>
@@ -1824,7 +1834,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>3330</v>
       </c>
@@ -1841,10 +1851,10 @@
         <v>133</v>
       </c>
       <c r="F23" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>3640</v>
       </c>
@@ -1861,15 +1871,15 @@
         <v>135</v>
       </c>
       <c r="F24" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G24" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B25" t="s">
         <v>0</v>
@@ -1887,7 +1897,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>3640</v>
       </c>
@@ -1907,7 +1917,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>5710</v>
       </c>
@@ -1924,7 +1934,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>880</v>
       </c>
@@ -1935,19 +1945,19 @@
         <v>25</v>
       </c>
       <c r="D28" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E28" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="F28" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="G28" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>380</v>
       </c>
@@ -1964,13 +1974,13 @@
         <v>26</v>
       </c>
       <c r="F29" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G29" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>190</v>
       </c>
@@ -1987,7 +1997,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>140</v>
       </c>
@@ -2007,7 +2017,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>3510</v>
       </c>
@@ -2024,7 +2034,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>5450</v>
       </c>
@@ -2041,7 +2051,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>0</v>
       </c>
@@ -2058,7 +2068,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>340</v>
       </c>
@@ -2075,7 +2085,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>330</v>
       </c>
@@ -2095,7 +2105,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>810</v>
       </c>
@@ -2112,7 +2122,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>140</v>
       </c>
@@ -2129,7 +2139,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>300</v>
       </c>
@@ -2146,9 +2156,9 @@
         <v>201</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B40" t="s">
         <v>0</v>
@@ -2163,10 +2173,10 @@
         <v>124</v>
       </c>
       <c r="F40" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>3410</v>
       </c>
@@ -2183,12 +2193,12 @@
         <v>202</v>
       </c>
       <c r="F41" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B42" t="s">
         <v>0</v>
@@ -2203,9 +2213,9 @@
         <v>203</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B43" t="s">
         <v>0</v>
@@ -2220,7 +2230,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1470</v>
       </c>
@@ -2228,21 +2238,21 @@
         <v>0</v>
       </c>
       <c r="C44" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D44" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E44" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F44" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B45" t="s">
         <v>0</v>
@@ -2257,7 +2267,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>320</v>
       </c>
@@ -2280,7 +2290,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>0</v>
       </c>
@@ -2294,7 +2304,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>450</v>
       </c>
@@ -2311,7 +2321,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1300</v>
       </c>
@@ -2328,7 +2338,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2060</v>
       </c>
@@ -2345,7 +2355,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>750</v>
       </c>
@@ -2362,13 +2372,13 @@
         <v>210</v>
       </c>
       <c r="F51" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="G51" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>4640</v>
       </c>
@@ -2385,10 +2395,10 @@
         <v>211</v>
       </c>
       <c r="F52" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>0</v>
       </c>
@@ -2405,10 +2415,10 @@
         <v>212</v>
       </c>
       <c r="F53" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>670</v>
       </c>
@@ -2428,7 +2438,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>680</v>
       </c>
@@ -2442,10 +2452,10 @@
         <v>172</v>
       </c>
       <c r="E55" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>530</v>
       </c>
@@ -2459,10 +2469,10 @@
         <v>251</v>
       </c>
       <c r="E56" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>530</v>
       </c>
@@ -2476,10 +2486,10 @@
         <v>252</v>
       </c>
       <c r="E57" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1000</v>
       </c>
@@ -2490,13 +2500,13 @@
         <v>55</v>
       </c>
       <c r="D58" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E58" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>6600</v>
       </c>
@@ -2510,16 +2520,16 @@
         <v>253</v>
       </c>
       <c r="E59" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F59" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="G59" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>8330</v>
       </c>
@@ -2533,10 +2543,10 @@
         <v>254</v>
       </c>
       <c r="E60" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>430</v>
       </c>
@@ -2553,7 +2563,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>1450</v>
       </c>
@@ -2570,10 +2580,10 @@
         <v>214</v>
       </c>
       <c r="F62" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>420</v>
       </c>
@@ -2590,7 +2600,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>830</v>
       </c>
@@ -2610,7 +2620,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>680</v>
       </c>
@@ -2627,7 +2637,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>2490</v>
       </c>
@@ -2644,7 +2654,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>300</v>
       </c>
@@ -2661,7 +2671,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>290</v>
       </c>
@@ -2681,7 +2691,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>1240</v>
       </c>
@@ -2698,7 +2708,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>710</v>
       </c>
@@ -2715,7 +2725,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>5330</v>
       </c>
@@ -2732,7 +2742,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>560</v>
       </c>
@@ -2749,7 +2759,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>570</v>
       </c>
@@ -2766,7 +2776,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>730</v>
       </c>
@@ -2786,7 +2796,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>470</v>
       </c>
@@ -2803,7 +2813,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>6790</v>
       </c>
@@ -2823,7 +2833,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>7000</v>
       </c>
@@ -2840,7 +2850,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>430</v>
       </c>
@@ -2857,7 +2867,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>570</v>
       </c>
@@ -2874,7 +2884,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>1230</v>
       </c>
@@ -2891,10 +2901,10 @@
         <v>234</v>
       </c>
       <c r="F80" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>1230</v>
       </c>
@@ -2902,200 +2912,217 @@
         <v>45</v>
       </c>
       <c r="C81" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D81" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E81" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F81" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82">
+        <v>1230</v>
+      </c>
+      <c r="B82" t="s">
+        <v>45</v>
+      </c>
+      <c r="C82" t="s">
+        <v>322</v>
+      </c>
+      <c r="D82" t="s">
+        <v>320</v>
+      </c>
+      <c r="E82" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83">
         <v>2390</v>
       </c>
-      <c r="B82" t="s">
-        <v>45</v>
-      </c>
-      <c r="C82" t="s">
+      <c r="B83" t="s">
+        <v>45</v>
+      </c>
+      <c r="C83" t="s">
         <v>78</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D83" t="s">
         <v>265</v>
       </c>
-      <c r="E82" t="s">
+      <c r="E83" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A83">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84">
         <v>1060</v>
       </c>
-      <c r="B83" t="s">
-        <v>45</v>
-      </c>
-      <c r="C83" t="s">
+      <c r="B84" t="s">
+        <v>45</v>
+      </c>
+      <c r="C84" t="s">
         <v>79</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D84" t="s">
         <v>266</v>
       </c>
-      <c r="E83" t="s">
+      <c r="E84" t="s">
         <v>186</v>
       </c>
-      <c r="F83" t="s">
-        <v>321</v>
-      </c>
-      <c r="G83" t="s">
+      <c r="F84" t="s">
+        <v>318</v>
+      </c>
+      <c r="G84" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A84">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85">
         <v>330</v>
       </c>
-      <c r="B84" t="s">
-        <v>45</v>
-      </c>
-      <c r="C84" t="s">
+      <c r="B85" t="s">
+        <v>45</v>
+      </c>
+      <c r="C85" t="s">
         <v>80</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D85" t="s">
         <v>267</v>
       </c>
-      <c r="E84" t="s">
+      <c r="E85" t="s">
         <v>236</v>
       </c>
-      <c r="F84" t="s">
+      <c r="F85" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A85">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86">
         <v>750</v>
       </c>
-      <c r="B85" t="s">
-        <v>45</v>
-      </c>
-      <c r="C85" t="s">
+      <c r="B86" t="s">
+        <v>45</v>
+      </c>
+      <c r="C86" t="s">
         <v>81</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D86" t="s">
         <v>268</v>
       </c>
-      <c r="E85" t="s">
+      <c r="E86" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A86">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87">
         <v>2890</v>
       </c>
-      <c r="B86" t="s">
-        <v>45</v>
-      </c>
-      <c r="C86" t="s">
+      <c r="B87" t="s">
+        <v>45</v>
+      </c>
+      <c r="C87" t="s">
         <v>82</v>
       </c>
-      <c r="D86" t="s">
+      <c r="D87" t="s">
         <v>188</v>
       </c>
-      <c r="E86" t="s">
+      <c r="E87" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A87" t="s">
-        <v>302</v>
-      </c>
-      <c r="B87" t="s">
-        <v>83</v>
-      </c>
-      <c r="C87" t="s">
-        <v>84</v>
-      </c>
-      <c r="D87" t="s">
-        <v>190</v>
-      </c>
-      <c r="E87" t="s">
-        <v>189</v>
-      </c>
-      <c r="F87" t="s">
-        <v>277</v>
-      </c>
-      <c r="G87" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A88">
-        <v>3850</v>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>299</v>
       </c>
       <c r="B88" t="s">
         <v>83</v>
       </c>
       <c r="C88" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D88" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E88" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>189</v>
+      </c>
+      <c r="F88" t="s">
+        <v>276</v>
+      </c>
+      <c r="G88" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>240</v>
+        <v>3850</v>
       </c>
       <c r="B89" t="s">
         <v>83</v>
       </c>
       <c r="C89" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D89" t="s">
-        <v>269</v>
+        <v>192</v>
       </c>
       <c r="E89" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>330</v>
+        <v>240</v>
       </c>
       <c r="B90" t="s">
         <v>83</v>
       </c>
       <c r="C90" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D90" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E90" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>540</v>
+        <v>330</v>
       </c>
       <c r="B91" t="s">
         <v>83</v>
       </c>
       <c r="C91" t="s">
+        <v>87</v>
+      </c>
+      <c r="D91" t="s">
+        <v>270</v>
+      </c>
+      <c r="E91" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>540</v>
+      </c>
+      <c r="B92" t="s">
+        <v>83</v>
+      </c>
+      <c r="C92" t="s">
         <v>88</v>
       </c>
-      <c r="D91" t="s">
+      <c r="D92" t="s">
         <v>271</v>
       </c>
-      <c r="E91" t="s">
+      <c r="E92" t="s">
         <v>240</v>
       </c>
     </row>

--- a/rtss-mexico/src/main/resources/agriculture/cultures.xlsx
+++ b/rtss-mexico/src/main/resources/agriculture/cultures.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\rtss-mexico\src\main\resources\agriculture\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{610FD65F-7D7F-419A-922B-775A8C3CE47A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D400DC2-2803-4104-AB93-7F39C81B5281}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="38520" windowHeight="23700" activeTab="1" xr2:uid="{96FB73F9-179D-47FB-B022-0E98E67E2FA8}"/>
+    <workbookView xWindow="17760" yWindow="6960" windowWidth="16650" windowHeight="15540" xr2:uid="{96FB73F9-179D-47FB-B022-0E98E67E2FA8}"/>
   </bookViews>
   <sheets>
     <sheet name="note" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="331">
   <si>
     <t>Annual</t>
   </si>
@@ -1010,6 +1010,21 @@
   </si>
   <si>
     <t>plátano, плантаны разные</t>
+  </si>
+  <si>
+    <t>Таблица "Nutritive factors"</t>
+  </si>
+  <si>
+    <t>https://www.fao.org/economic/the-statistics-division-ess/publications-studies/publications/nutritive-factors/en</t>
+  </si>
+  <si>
+    <t>Таблица "Food composition tables" в приложении к "Food Balance Sheets : A Handbook", FAO, Rome 2001, стр. 60-65</t>
+  </si>
+  <si>
+    <t>https://www.fao.org/docrep/pdf/011/x9892e/x9892e00.pdf</t>
+  </si>
+  <si>
+    <t>https://www.fao.org/4/x9892e/X9892e05.htm</t>
   </si>
 </sst>
 </file>
@@ -1384,10 +1399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E948251-FF0B-472B-9D81-A6DF08500BDF}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1405,6 +1420,31 @@
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>308</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>330</v>
       </c>
     </row>
   </sheetData>
@@ -1419,8 +1459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5536FC84-276C-47F5-A823-8A76B73F8393}">
   <dimension ref="A1:G92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="F80" sqref="F80"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2052,6 +2092,9 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>3600</v>
+      </c>
       <c r="B34" t="s">
         <v>0</v>
       </c>
@@ -2291,6 +2334,9 @@
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>3400</v>
+      </c>
       <c r="B47" t="s">
         <v>0</v>
       </c>

--- a/rtss-mexico/src/main/resources/agriculture/cultures.xlsx
+++ b/rtss-mexico/src/main/resources/agriculture/cultures.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\rtss-mexico\src\main\resources\agriculture\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-mexico\src\main\resources\agriculture\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D400DC2-2803-4104-AB93-7F39C81B5281}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAB6B23C-4707-4782-A60A-5A4F00756C63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17760" yWindow="6960" windowWidth="16650" windowHeight="15540" xr2:uid="{96FB73F9-179D-47FB-B022-0E98E67E2FA8}"/>
+    <workbookView xWindow="59430" yWindow="1830" windowWidth="43200" windowHeight="16770" activeTab="1" xr2:uid="{96FB73F9-179D-47FB-B022-0E98E67E2FA8}"/>
   </bookViews>
   <sheets>
     <sheet name="note" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="332">
   <si>
     <t>Annual</t>
   </si>
@@ -1025,6 +1025,9 @@
   </si>
   <si>
     <t>https://www.fao.org/4/x9892e/X9892e05.htm</t>
+  </si>
+  <si>
+    <t>Для сухой фасоли ФАО приводит калорийность 3410, а USDA (экспресс-анализом) 3330-3370 ккал/кг, но усваиваемая питательность ниже.</t>
   </si>
 </sst>
 </file>
@@ -1401,48 +1404,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E948251-FF0B-472B-9D81-A6DF08500BDF}">
   <dimension ref="A1:A12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9:A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>330</v>
       </c>
@@ -1459,21 +1462,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5536FC84-276C-47F5-A823-8A76B73F8393}">
   <dimension ref="A1:G92"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
       <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" customWidth="1"/>
-    <col min="3" max="3" width="31.28515625" customWidth="1"/>
+    <col min="2" max="2" width="21.26171875" customWidth="1"/>
+    <col min="3" max="3" width="31.26171875" customWidth="1"/>
     <col min="4" max="4" width="27" customWidth="1"/>
-    <col min="5" max="5" width="21.5703125" customWidth="1"/>
-    <col min="6" max="6" width="32.7109375" customWidth="1"/>
+    <col min="5" max="5" width="21.578125" customWidth="1"/>
+    <col min="6" max="6" width="32.68359375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="3" t="s">
         <v>298</v>
       </c>
@@ -1496,7 +1499,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>1300</v>
       </c>
@@ -1513,7 +1516,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>6310</v>
       </c>
@@ -1533,7 +1536,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>307</v>
       </c>
@@ -1553,7 +1556,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>4000</v>
       </c>
@@ -1570,7 +1573,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>3590</v>
       </c>
@@ -1590,7 +1593,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>3460</v>
       </c>
@@ -1610,7 +1613,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>3790</v>
       </c>
@@ -1627,7 +1630,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>220</v>
       </c>
@@ -1644,7 +1647,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>410</v>
       </c>
@@ -1664,7 +1667,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>320</v>
       </c>
@@ -1681,7 +1684,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>5510</v>
       </c>
@@ -1698,7 +1701,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>770</v>
       </c>
@@ -1715,7 +1718,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>5170</v>
       </c>
@@ -1735,7 +1738,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <v>3520</v>
       </c>
@@ -1755,7 +1758,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
         <v>360</v>
       </c>
@@ -1772,7 +1775,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
         <v>230</v>
       </c>
@@ -1789,7 +1792,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
         <v>280</v>
       </c>
@@ -1806,7 +1809,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
         <v>810</v>
       </c>
@@ -1823,7 +1826,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
         <v>3240</v>
       </c>
@@ -1840,7 +1843,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
         <v>400</v>
       </c>
@@ -1857,7 +1860,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
         <v>340</v>
       </c>
@@ -1874,9 +1877,9 @@
         <v>132</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
-        <v>3330</v>
+        <v>2600</v>
       </c>
       <c r="B23" t="s">
         <v>0</v>
@@ -1893,8 +1896,11 @@
       <c r="F23" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G23" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
         <v>3640</v>
       </c>
@@ -1917,7 +1923,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>307</v>
       </c>
@@ -1937,7 +1943,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A26">
         <v>3640</v>
       </c>
@@ -1957,7 +1963,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A27">
         <v>5710</v>
       </c>
@@ -1974,7 +1980,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A28">
         <v>880</v>
       </c>
@@ -1997,7 +2003,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A29">
         <v>380</v>
       </c>
@@ -2020,7 +2026,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A30">
         <v>190</v>
       </c>
@@ -2037,7 +2043,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A31">
         <v>140</v>
       </c>
@@ -2057,7 +2063,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A32">
         <v>3510</v>
       </c>
@@ -2074,7 +2080,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A33">
         <v>5450</v>
       </c>
@@ -2091,7 +2097,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A34">
         <v>3600</v>
       </c>
@@ -2111,7 +2117,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A35">
         <v>340</v>
       </c>
@@ -2128,7 +2134,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A36">
         <v>330</v>
       </c>
@@ -2148,7 +2154,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A37">
         <v>810</v>
       </c>
@@ -2165,7 +2171,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A38">
         <v>140</v>
       </c>
@@ -2182,7 +2188,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A39">
         <v>300</v>
       </c>
@@ -2199,7 +2205,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>307</v>
       </c>
@@ -2219,7 +2225,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A41">
         <v>3410</v>
       </c>
@@ -2239,7 +2245,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>307</v>
       </c>
@@ -2256,7 +2262,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>307</v>
       </c>
@@ -2273,7 +2279,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A44">
         <v>1470</v>
       </c>
@@ -2293,7 +2299,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
         <v>307</v>
       </c>
@@ -2310,7 +2316,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A46">
         <v>320</v>
       </c>
@@ -2333,9 +2339,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A47">
-        <v>3400</v>
+        <v>3350</v>
       </c>
       <c r="B47" t="s">
         <v>0</v>
@@ -2350,7 +2356,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A48">
         <v>450</v>
       </c>
@@ -2367,7 +2373,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A49">
         <v>1300</v>
       </c>
@@ -2384,7 +2390,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A50">
         <v>2060</v>
       </c>
@@ -2401,7 +2407,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A51">
         <v>750</v>
       </c>
@@ -2424,7 +2430,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A52">
         <v>4640</v>
       </c>
@@ -2444,7 +2450,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A53">
         <v>0</v>
       </c>
@@ -2464,7 +2470,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A54">
         <v>670</v>
       </c>
@@ -2484,7 +2490,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A55">
         <v>680</v>
       </c>
@@ -2501,7 +2507,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A56">
         <v>530</v>
       </c>
@@ -2518,7 +2524,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A57">
         <v>530</v>
       </c>
@@ -2535,7 +2541,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A58">
         <v>1000</v>
       </c>
@@ -2552,7 +2558,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A59">
         <v>6600</v>
       </c>
@@ -2575,7 +2581,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A60">
         <v>8330</v>
       </c>
@@ -2592,7 +2598,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A61">
         <v>430</v>
       </c>
@@ -2609,7 +2615,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A62">
         <v>1450</v>
       </c>
@@ -2629,7 +2635,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A63">
         <v>420</v>
       </c>
@@ -2646,7 +2652,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A64">
         <v>830</v>
       </c>
@@ -2666,7 +2672,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A65">
         <v>680</v>
       </c>
@@ -2683,7 +2689,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A66">
         <v>2490</v>
       </c>
@@ -2700,7 +2706,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A67">
         <v>300</v>
       </c>
@@ -2717,7 +2723,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A68">
         <v>290</v>
       </c>
@@ -2737,7 +2743,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A69">
         <v>1240</v>
       </c>
@@ -2754,7 +2760,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A70">
         <v>710</v>
       </c>
@@ -2771,7 +2777,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A71">
         <v>5330</v>
       </c>
@@ -2788,7 +2794,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A72">
         <v>560</v>
       </c>
@@ -2805,7 +2811,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A73">
         <v>570</v>
       </c>
@@ -2822,7 +2828,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A74">
         <v>730</v>
       </c>
@@ -2842,7 +2848,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A75">
         <v>470</v>
       </c>
@@ -2859,7 +2865,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A76">
         <v>6790</v>
       </c>
@@ -2879,7 +2885,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A77">
         <v>7000</v>
       </c>
@@ -2896,7 +2902,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A78">
         <v>430</v>
       </c>
@@ -2913,7 +2919,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A79">
         <v>570</v>
       </c>
@@ -2930,7 +2936,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A80">
         <v>1230</v>
       </c>
@@ -2950,7 +2956,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A81">
         <v>1230</v>
       </c>
@@ -2970,7 +2976,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A82">
         <v>1230</v>
       </c>
@@ -2987,7 +2993,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A83">
         <v>2390</v>
       </c>
@@ -3004,7 +3010,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A84">
         <v>1060</v>
       </c>
@@ -3027,7 +3033,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A85">
         <v>330</v>
       </c>
@@ -3047,7 +3053,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A86">
         <v>750</v>
       </c>
@@ -3064,7 +3070,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A87">
         <v>2890</v>
       </c>
@@ -3081,7 +3087,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" t="s">
         <v>299</v>
       </c>
@@ -3104,7 +3110,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A89">
         <v>3850</v>
       </c>
@@ -3121,7 +3127,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A90">
         <v>240</v>
       </c>
@@ -3138,7 +3144,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A91">
         <v>330</v>
       </c>
@@ -3155,7 +3161,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A92">
         <v>540</v>
       </c>

--- a/rtss-mexico/src/main/resources/agriculture/cultures.xlsx
+++ b/rtss-mexico/src/main/resources/agriculture/cultures.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-mexico\src\main\resources\agriculture\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAB6B23C-4707-4782-A60A-5A4F00756C63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F10EB8A-6A97-4681-900D-0D78821F61A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="59430" yWindow="1830" windowWidth="43200" windowHeight="16770" activeTab="1" xr2:uid="{96FB73F9-179D-47FB-B022-0E98E67E2FA8}"/>
+    <workbookView xWindow="58380" yWindow="540" windowWidth="26685" windowHeight="22020" activeTab="1" xr2:uid="{96FB73F9-179D-47FB-B022-0E98E67E2FA8}"/>
   </bookViews>
   <sheets>
     <sheet name="note" sheetId="2" r:id="rId1"/>
@@ -1462,8 +1462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5536FC84-276C-47F5-A823-8A76B73F8393}">
   <dimension ref="A1:G92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="L83" sqref="L83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>

--- a/rtss-mexico/src/main/resources/agriculture/cultures.xlsx
+++ b/rtss-mexico/src/main/resources/agriculture/cultures.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-mexico\src\main\resources\agriculture\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F10EB8A-6A97-4681-900D-0D78821F61A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{030E42FA-F42F-4BFA-86AE-232BFF6DCD2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="58380" yWindow="540" windowWidth="26685" windowHeight="22020" activeTab="1" xr2:uid="{96FB73F9-179D-47FB-B022-0E98E67E2FA8}"/>
+    <workbookView xWindow="67080" yWindow="1155" windowWidth="30225" windowHeight="21105" activeTab="1" xr2:uid="{96FB73F9-179D-47FB-B022-0E98E67E2FA8}"/>
   </bookViews>
   <sheets>
     <sheet name="note" sheetId="2" r:id="rId1"/>
@@ -1006,9 +1006,6 @@
     <t>sorgo (grano), сорго (зерно)</t>
   </si>
   <si>
-    <t>arroz palay = рис сырец, azzor pulido/limpio = чищенный рис, коэффициент перевода 0.66</t>
-  </si>
-  <si>
     <t>plátano, плантаны разные</t>
   </si>
   <si>
@@ -1028,6 +1025,9 @@
   </si>
   <si>
     <t>Для сухой фасоли ФАО приводит калорийность 3410, а USDA (экспресс-анализом) 3330-3370 ккал/кг, но усваиваемая питательность ниже.</t>
+  </si>
+  <si>
+    <t>arroz palay = рис сырец, azzor pulido/limpio = чищенный рис, коэффициент перевода 0.66, калорийность для чищенного</t>
   </si>
 </sst>
 </file>
@@ -1427,27 +1427,27 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
   </sheetData>
@@ -1462,8 +1462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5536FC84-276C-47F5-A823-8A76B73F8393}">
   <dimension ref="A1:G92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="L83" sqref="L83"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1590,7 +1590,7 @@
         <v>100</v>
       </c>
       <c r="G6" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1897,7 +1897,7 @@
         <v>297</v>
       </c>
       <c r="G23" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2953,7 +2953,7 @@
         <v>234</v>
       </c>
       <c r="F80" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.55000000000000004">

--- a/rtss-mexico/src/main/resources/agriculture/cultures.xlsx
+++ b/rtss-mexico/src/main/resources/agriculture/cultures.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-mexico\src\main\resources\agriculture\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{030E42FA-F42F-4BFA-86AE-232BFF6DCD2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8212F98-18FB-41E2-A6E5-9624D5A5258F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="67080" yWindow="1155" windowWidth="30225" windowHeight="21105" activeTab="1" xr2:uid="{96FB73F9-179D-47FB-B022-0E98E67E2FA8}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="57840" windowHeight="23520" activeTab="1" xr2:uid="{96FB73F9-179D-47FB-B022-0E98E67E2FA8}"/>
   </bookViews>
   <sheets>
     <sheet name="note" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="334">
   <si>
     <t>Annual</t>
   </si>
@@ -1028,6 +1028,12 @@
   </si>
   <si>
     <t>arroz palay = рис сырец, azzor pulido/limpio = чищенный рис, коэффициент перевода 0.66, калорийность для чищенного</t>
+  </si>
+  <si>
+    <t>seed%</t>
+  </si>
+  <si>
+    <t>fodder%</t>
   </si>
 </sst>
 </file>
@@ -1460,1721 +1466,1811 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5536FC84-276C-47F5-A823-8A76B73F8393}">
-  <dimension ref="A1:G92"/>
+  <dimension ref="A1:I92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="C91" sqref="C91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="21.26171875" customWidth="1"/>
-    <col min="3" max="3" width="31.26171875" customWidth="1"/>
-    <col min="4" max="4" width="27" customWidth="1"/>
-    <col min="5" max="5" width="21.578125" customWidth="1"/>
-    <col min="6" max="6" width="32.68359375" customWidth="1"/>
+    <col min="1" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="21.26171875" customWidth="1"/>
+    <col min="5" max="5" width="31.26171875" customWidth="1"/>
+    <col min="6" max="6" width="27" customWidth="1"/>
+    <col min="7" max="7" width="21.578125" customWidth="1"/>
+    <col min="8" max="8" width="32.68359375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="3" t="s">
         <v>298</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>1300</v>
       </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>93</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>6310</v>
       </c>
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>95</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>96</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>307</v>
       </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
         <v>3</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>159</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
         <v>160</v>
       </c>
-      <c r="F4" t="s">
+      <c r="H4" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>4000</v>
       </c>
-      <c r="B5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
         <v>4</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
         <v>97</v>
       </c>
-      <c r="E5" t="s">
+      <c r="G5" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>3590</v>
       </c>
-      <c r="B6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6">
         <v>5</v>
       </c>
       <c r="D6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" t="s">
         <v>99</v>
       </c>
-      <c r="E6" t="s">
+      <c r="G6" t="s">
         <v>100</v>
       </c>
-      <c r="G6" t="s">
+      <c r="I6" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>3460</v>
       </c>
-      <c r="B7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
         <v>6</v>
       </c>
-      <c r="D7" t="s">
+      <c r="F7" t="s">
         <v>126</v>
       </c>
-      <c r="E7" t="s">
+      <c r="G7" t="s">
         <v>127</v>
       </c>
-      <c r="G7" t="s">
+      <c r="I7" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>3790</v>
       </c>
-      <c r="B8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>50</v>
+      </c>
+      <c r="D8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
         <v>7</v>
       </c>
-      <c r="D8" t="s">
+      <c r="F8" t="s">
         <v>117</v>
       </c>
-      <c r="E8" t="s">
+      <c r="G8" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>220</v>
       </c>
-      <c r="B9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
         <v>8</v>
       </c>
-      <c r="D9" t="s">
+      <c r="F9" t="s">
         <v>103</v>
       </c>
-      <c r="E9" t="s">
+      <c r="G9" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>410</v>
       </c>
-      <c r="B10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
         <v>9</v>
       </c>
-      <c r="D10" t="s">
+      <c r="F10" t="s">
         <v>105</v>
       </c>
-      <c r="E10" t="s">
+      <c r="G10" t="s">
         <v>106</v>
       </c>
-      <c r="F10" t="s">
+      <c r="H10" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>320</v>
       </c>
-      <c r="B11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
         <v>10</v>
       </c>
-      <c r="D11" t="s">
+      <c r="F11" t="s">
         <v>108</v>
       </c>
-      <c r="E11" t="s">
+      <c r="G11" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>5510</v>
       </c>
-      <c r="B12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
         <v>11</v>
       </c>
-      <c r="D12" t="s">
+      <c r="F12" t="s">
         <v>110</v>
       </c>
-      <c r="E12" t="s">
+      <c r="G12" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>770</v>
       </c>
-      <c r="B13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
         <v>12</v>
       </c>
-      <c r="D13" t="s">
+      <c r="F13" t="s">
         <v>111</v>
       </c>
-      <c r="E13" t="s">
+      <c r="G13" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>5170</v>
       </c>
-      <c r="B14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
         <v>13</v>
       </c>
-      <c r="D14" t="s">
+      <c r="F14" t="s">
         <v>113</v>
       </c>
-      <c r="E14" t="s">
+      <c r="G14" t="s">
         <v>114</v>
       </c>
-      <c r="F14" t="s">
+      <c r="H14" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <v>3520</v>
       </c>
-      <c r="B15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>20</v>
+      </c>
+      <c r="D15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
         <v>14</v>
       </c>
-      <c r="D15" t="s">
+      <c r="F15" t="s">
         <v>116</v>
       </c>
-      <c r="E15" t="s">
+      <c r="G15" t="s">
         <v>115</v>
       </c>
-      <c r="F15" t="s">
+      <c r="H15" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
         <v>360</v>
       </c>
-      <c r="B16" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
         <v>15</v>
       </c>
-      <c r="D16" t="s">
+      <c r="F16" t="s">
         <v>118</v>
       </c>
-      <c r="E16" t="s">
+      <c r="G16" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
         <v>230</v>
       </c>
-      <c r="B17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
         <v>16</v>
       </c>
-      <c r="D17" t="s">
+      <c r="F17" t="s">
         <v>119</v>
       </c>
-      <c r="E17" t="s">
+      <c r="G17" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
         <v>280</v>
       </c>
-      <c r="B18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
         <v>121</v>
       </c>
-      <c r="D18" t="s">
+      <c r="F18" t="s">
         <v>122</v>
       </c>
-      <c r="E18" t="s">
+      <c r="G18" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
         <v>810</v>
       </c>
-      <c r="B19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="B19">
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <v>10</v>
+      </c>
+      <c r="D19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
         <v>17</v>
       </c>
-      <c r="D19" t="s">
+      <c r="F19" t="s">
         <v>101</v>
       </c>
-      <c r="E19" t="s">
+      <c r="G19" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
         <v>3240</v>
       </c>
-      <c r="B20" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
+        <v>0</v>
+      </c>
+      <c r="E20" t="s">
         <v>18</v>
       </c>
-      <c r="D20" t="s">
+      <c r="F20" t="s">
         <v>129</v>
       </c>
-      <c r="E20" t="s">
+      <c r="G20" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
         <v>400</v>
       </c>
-      <c r="B21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
         <v>287</v>
       </c>
-      <c r="D21" t="s">
+      <c r="F21" t="s">
         <v>286</v>
       </c>
-      <c r="E21" t="s">
+      <c r="G21" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
         <v>340</v>
       </c>
-      <c r="B22" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="B22">
+        <v>5</v>
+      </c>
+      <c r="C22">
+        <v>10</v>
+      </c>
+      <c r="D22" t="s">
+        <v>0</v>
+      </c>
+      <c r="E22" t="s">
         <v>19</v>
       </c>
-      <c r="D22" t="s">
+      <c r="F22" t="s">
         <v>131</v>
       </c>
-      <c r="E22" t="s">
+      <c r="G22" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
         <v>2600</v>
       </c>
-      <c r="B23" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="B23">
+        <v>5</v>
+      </c>
+      <c r="C23">
+        <v>10</v>
+      </c>
+      <c r="D23" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23" t="s">
         <v>20</v>
       </c>
-      <c r="D23" t="s">
+      <c r="F23" t="s">
         <v>134</v>
       </c>
-      <c r="E23" t="s">
+      <c r="G23" t="s">
         <v>133</v>
       </c>
-      <c r="F23" t="s">
+      <c r="H23" t="s">
         <v>297</v>
       </c>
-      <c r="G23" t="s">
+      <c r="I23" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
         <v>3640</v>
       </c>
-      <c r="B24" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="B24">
+        <v>5</v>
+      </c>
+      <c r="D24" t="s">
+        <v>0</v>
+      </c>
+      <c r="E24" t="s">
         <v>21</v>
       </c>
-      <c r="D24" t="s">
+      <c r="F24" t="s">
         <v>136</v>
       </c>
-      <c r="E24" t="s">
+      <c r="G24" t="s">
         <v>135</v>
       </c>
-      <c r="F24" t="s">
+      <c r="H24" t="s">
         <v>277</v>
       </c>
-      <c r="G24" t="s">
+      <c r="I24" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>307</v>
       </c>
-      <c r="B25" t="s">
-        <v>0</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
+        <v>0</v>
+      </c>
+      <c r="E25" t="s">
         <v>22</v>
       </c>
-      <c r="D25" t="s">
+      <c r="F25" t="s">
         <v>139</v>
       </c>
-      <c r="E25" t="s">
+      <c r="G25" t="s">
         <v>138</v>
       </c>
-      <c r="G25" t="s">
+      <c r="I25" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A26">
         <v>3640</v>
       </c>
-      <c r="B26" t="s">
-        <v>0</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="B26">
+        <v>5</v>
+      </c>
+      <c r="D26" t="s">
+        <v>0</v>
+      </c>
+      <c r="E26" t="s">
         <v>23</v>
       </c>
-      <c r="D26" t="s">
+      <c r="F26" t="s">
         <v>141</v>
       </c>
-      <c r="E26" t="s">
+      <c r="G26" t="s">
         <v>140</v>
       </c>
-      <c r="G26" t="s">
+      <c r="I26" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A27">
         <v>5710</v>
       </c>
-      <c r="B27" t="s">
-        <v>0</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
+        <v>0</v>
+      </c>
+      <c r="E27" t="s">
         <v>24</v>
       </c>
-      <c r="D27" t="s">
+      <c r="F27" t="s">
         <v>142</v>
       </c>
-      <c r="E27" t="s">
+      <c r="G27" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A28">
         <v>880</v>
       </c>
-      <c r="B28" t="s">
-        <v>0</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="B28">
+        <v>5</v>
+      </c>
+      <c r="C28">
+        <v>10</v>
+      </c>
+      <c r="D28" t="s">
+        <v>0</v>
+      </c>
+      <c r="E28" t="s">
         <v>25</v>
       </c>
-      <c r="D28" t="s">
+      <c r="F28" t="s">
         <v>294</v>
       </c>
-      <c r="E28" t="s">
+      <c r="G28" t="s">
         <v>295</v>
       </c>
-      <c r="F28" t="s">
+      <c r="H28" t="s">
         <v>296</v>
       </c>
-      <c r="G28" t="s">
+      <c r="I28" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A29">
         <v>380</v>
       </c>
-      <c r="B29" t="s">
-        <v>0</v>
-      </c>
-      <c r="C29" t="s">
-        <v>26</v>
-      </c>
       <c r="D29" t="s">
-        <v>144</v>
+        <v>0</v>
       </c>
       <c r="E29" t="s">
         <v>26</v>
       </c>
       <c r="F29" t="s">
+        <v>144</v>
+      </c>
+      <c r="G29" t="s">
+        <v>26</v>
+      </c>
+      <c r="H29" t="s">
         <v>309</v>
       </c>
-      <c r="G29" t="s">
+      <c r="I29" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A30">
         <v>190</v>
       </c>
-      <c r="B30" t="s">
-        <v>0</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E30" t="s">
         <v>27</v>
       </c>
-      <c r="D30" t="s">
+      <c r="F30" t="s">
         <v>150</v>
       </c>
-      <c r="E30" t="s">
+      <c r="G30" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A31">
         <v>140</v>
       </c>
-      <c r="B31" t="s">
-        <v>0</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="B31">
+        <v>5</v>
+      </c>
+      <c r="D31" t="s">
+        <v>0</v>
+      </c>
+      <c r="E31" t="s">
         <v>28</v>
       </c>
-      <c r="D31" t="s">
+      <c r="F31" t="s">
         <v>152</v>
       </c>
-      <c r="E31" t="s">
+      <c r="G31" t="s">
         <v>194</v>
       </c>
-      <c r="F31" t="s">
+      <c r="H31" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A32">
         <v>3510</v>
       </c>
-      <c r="B32" t="s">
-        <v>0</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="B32">
+        <v>5</v>
+      </c>
+      <c r="D32" t="s">
+        <v>0</v>
+      </c>
+      <c r="E32" t="s">
         <v>29</v>
       </c>
-      <c r="D32" t="s">
+      <c r="F32" t="s">
         <v>241</v>
       </c>
-      <c r="E32" t="s">
+      <c r="G32" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33">
-        <v>5450</v>
-      </c>
-      <c r="B33" t="s">
-        <v>0</v>
-      </c>
-      <c r="C33" t="s">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" t="s">
+        <v>307</v>
+      </c>
+      <c r="B33">
+        <v>5</v>
+      </c>
+      <c r="D33" t="s">
+        <v>0</v>
+      </c>
+      <c r="E33" t="s">
         <v>30</v>
       </c>
-      <c r="D33" t="s">
+      <c r="F33" t="s">
         <v>242</v>
       </c>
-      <c r="E33" t="s">
+      <c r="G33" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A34">
         <v>3600</v>
       </c>
-      <c r="B34" t="s">
-        <v>0</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="B34">
+        <v>5</v>
+      </c>
+      <c r="C34">
+        <v>10</v>
+      </c>
+      <c r="D34" t="s">
+        <v>0</v>
+      </c>
+      <c r="E34" t="s">
         <v>31</v>
       </c>
-      <c r="D34" t="s">
+      <c r="F34" t="s">
         <v>154</v>
       </c>
-      <c r="E34" t="s">
+      <c r="G34" t="s">
         <v>197</v>
       </c>
-      <c r="F34" t="s">
+      <c r="H34" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A35">
         <v>340</v>
       </c>
-      <c r="B35" t="s">
-        <v>0</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
+        <v>0</v>
+      </c>
+      <c r="E35" t="s">
         <v>32</v>
       </c>
-      <c r="D35" t="s">
+      <c r="F35" t="s">
         <v>243</v>
       </c>
-      <c r="E35" t="s">
+      <c r="G35" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A36">
         <v>330</v>
       </c>
-      <c r="B36" t="s">
-        <v>0</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
+        <v>0</v>
+      </c>
+      <c r="E36" t="s">
         <v>33</v>
       </c>
-      <c r="D36" t="s">
+      <c r="F36" t="s">
         <v>155</v>
       </c>
-      <c r="E36" t="s">
+      <c r="G36" t="s">
         <v>199</v>
       </c>
-      <c r="F36" t="s">
+      <c r="H36" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A37">
         <v>810</v>
       </c>
-      <c r="B37" t="s">
-        <v>0</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
+        <v>0</v>
+      </c>
+      <c r="E37" t="s">
         <v>34</v>
       </c>
-      <c r="D37" t="s">
+      <c r="F37" t="s">
         <v>157</v>
       </c>
-      <c r="E37" t="s">
+      <c r="G37" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A38">
         <v>140</v>
       </c>
-      <c r="B38" t="s">
-        <v>0</v>
-      </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
+        <v>0</v>
+      </c>
+      <c r="E38" t="s">
         <v>35</v>
       </c>
-      <c r="D38" t="s">
+      <c r="F38" t="s">
         <v>244</v>
       </c>
-      <c r="E38" t="s">
+      <c r="G38" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A39">
         <v>300</v>
       </c>
-      <c r="B39" t="s">
-        <v>0</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
+        <v>0</v>
+      </c>
+      <c r="E39" t="s">
         <v>36</v>
       </c>
-      <c r="D39" t="s">
+      <c r="F39" t="s">
         <v>245</v>
       </c>
-      <c r="E39" t="s">
+      <c r="G39" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>307</v>
       </c>
-      <c r="B40" t="s">
-        <v>0</v>
-      </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
+        <v>0</v>
+      </c>
+      <c r="E40" t="s">
         <v>37</v>
       </c>
-      <c r="D40" t="s">
+      <c r="F40" t="s">
         <v>125</v>
       </c>
-      <c r="E40" t="s">
+      <c r="G40" t="s">
         <v>124</v>
       </c>
-      <c r="F40" t="s">
+      <c r="H40" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A41">
         <v>3410</v>
       </c>
-      <c r="B41" t="s">
-        <v>0</v>
-      </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
+        <v>0</v>
+      </c>
+      <c r="E41" t="s">
         <v>38</v>
       </c>
-      <c r="D41" t="s">
+      <c r="F41" t="s">
         <v>162</v>
       </c>
-      <c r="E41" t="s">
+      <c r="G41" t="s">
         <v>202</v>
       </c>
-      <c r="F41" t="s">
+      <c r="H41" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>307</v>
       </c>
-      <c r="B42" t="s">
-        <v>0</v>
-      </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
+        <v>0</v>
+      </c>
+      <c r="E42" t="s">
         <v>39</v>
       </c>
-      <c r="D42" t="s">
+      <c r="F42" t="s">
         <v>163</v>
       </c>
-      <c r="E42" t="s">
+      <c r="G42" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>307</v>
       </c>
-      <c r="B43" t="s">
-        <v>0</v>
-      </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
+        <v>0</v>
+      </c>
+      <c r="E43" t="s">
         <v>40</v>
       </c>
-      <c r="D43" t="s">
+      <c r="F43" t="s">
         <v>161</v>
       </c>
-      <c r="E43" t="s">
+      <c r="G43" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A44">
         <v>1470</v>
       </c>
-      <c r="B44" t="s">
-        <v>0</v>
-      </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
+        <v>0</v>
+      </c>
+      <c r="E44" t="s">
         <v>288</v>
       </c>
-      <c r="D44" t="s">
+      <c r="F44" t="s">
         <v>289</v>
       </c>
-      <c r="E44" t="s">
+      <c r="G44" t="s">
         <v>290</v>
       </c>
-      <c r="F44" t="s">
+      <c r="H44" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
         <v>307</v>
       </c>
-      <c r="B45" t="s">
-        <v>0</v>
-      </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
+        <v>0</v>
+      </c>
+      <c r="E45" t="s">
         <v>41</v>
       </c>
-      <c r="D45" t="s">
+      <c r="F45" t="s">
         <v>246</v>
       </c>
-      <c r="E45" t="s">
+      <c r="G45" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A46">
         <v>320</v>
       </c>
-      <c r="B46" t="s">
-        <v>0</v>
-      </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
+        <v>0</v>
+      </c>
+      <c r="E46" t="s">
         <v>42</v>
       </c>
-      <c r="D46" t="s">
+      <c r="F46" t="s">
         <v>166</v>
       </c>
-      <c r="E46" t="s">
+      <c r="G46" t="s">
         <v>164</v>
       </c>
-      <c r="F46" t="s">
+      <c r="H46" t="s">
         <v>165</v>
       </c>
-      <c r="G46" t="s">
+      <c r="I46" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A47">
         <v>3350</v>
       </c>
-      <c r="B47" t="s">
-        <v>0</v>
-      </c>
-      <c r="C47" t="s">
+      <c r="B47">
+        <v>5</v>
+      </c>
+      <c r="C47">
+        <v>5</v>
+      </c>
+      <c r="D47" t="s">
+        <v>0</v>
+      </c>
+      <c r="E47" t="s">
         <v>43</v>
       </c>
-      <c r="D47" t="s">
+      <c r="F47" t="s">
         <v>168</v>
       </c>
-      <c r="E47" t="s">
+      <c r="G47" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A48">
         <v>450</v>
       </c>
-      <c r="B48" t="s">
-        <v>0</v>
-      </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
+        <v>0</v>
+      </c>
+      <c r="E48" t="s">
         <v>44</v>
       </c>
-      <c r="D48" t="s">
+      <c r="F48" t="s">
         <v>169</v>
       </c>
-      <c r="E48" t="s">
+      <c r="G48" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A49">
         <v>1300</v>
       </c>
-      <c r="B49" t="s">
-        <v>45</v>
-      </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
+        <v>45</v>
+      </c>
+      <c r="E49" t="s">
         <v>46</v>
       </c>
-      <c r="D49" t="s">
+      <c r="F49" t="s">
         <v>170</v>
       </c>
-      <c r="E49" t="s">
+      <c r="G49" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A50">
         <v>2060</v>
       </c>
-      <c r="B50" t="s">
-        <v>45</v>
-      </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
+        <v>45</v>
+      </c>
+      <c r="E50" t="s">
         <v>47</v>
       </c>
-      <c r="D50" t="s">
+      <c r="F50" t="s">
         <v>247</v>
       </c>
-      <c r="E50" t="s">
+      <c r="G50" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A51">
         <v>750</v>
       </c>
-      <c r="B51" t="s">
-        <v>45</v>
-      </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
+        <v>45</v>
+      </c>
+      <c r="E51" t="s">
         <v>48</v>
       </c>
-      <c r="D51" t="s">
+      <c r="F51" t="s">
         <v>248</v>
       </c>
-      <c r="E51" t="s">
+      <c r="G51" t="s">
         <v>210</v>
       </c>
-      <c r="F51" t="s">
+      <c r="H51" t="s">
         <v>312</v>
       </c>
-      <c r="G51" t="s">
+      <c r="I51" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A52">
         <v>4640</v>
       </c>
-      <c r="B52" t="s">
-        <v>45</v>
-      </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
+        <v>45</v>
+      </c>
+      <c r="E52" t="s">
         <v>49</v>
       </c>
-      <c r="D52" t="s">
+      <c r="F52" t="s">
         <v>249</v>
       </c>
-      <c r="E52" t="s">
+      <c r="G52" t="s">
         <v>211</v>
       </c>
-      <c r="F52" t="s">
+      <c r="H52" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A53">
         <v>0</v>
       </c>
-      <c r="B53" t="s">
-        <v>45</v>
-      </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
+        <v>45</v>
+      </c>
+      <c r="E53" t="s">
         <v>50</v>
       </c>
-      <c r="D53" t="s">
+      <c r="F53" t="s">
         <v>250</v>
       </c>
-      <c r="E53" t="s">
+      <c r="G53" t="s">
         <v>212</v>
       </c>
-      <c r="F53" t="s">
+      <c r="H53" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A54">
         <v>670</v>
       </c>
-      <c r="B54" t="s">
-        <v>45</v>
-      </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
+        <v>45</v>
+      </c>
+      <c r="E54" t="s">
         <v>51</v>
       </c>
-      <c r="D54" t="s">
+      <c r="F54" t="s">
         <v>272</v>
       </c>
-      <c r="E54" t="s">
+      <c r="G54" t="s">
         <v>213</v>
       </c>
-      <c r="G54" t="s">
+      <c r="I54" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A55">
         <v>680</v>
       </c>
-      <c r="B55" t="s">
-        <v>45</v>
-      </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
+        <v>45</v>
+      </c>
+      <c r="E55" t="s">
         <v>52</v>
       </c>
-      <c r="D55" t="s">
+      <c r="F55" t="s">
         <v>172</v>
       </c>
-      <c r="E55" t="s">
+      <c r="G55" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A56">
         <v>530</v>
       </c>
-      <c r="B56" t="s">
-        <v>45</v>
-      </c>
-      <c r="C56" t="s">
+      <c r="D56" t="s">
+        <v>45</v>
+      </c>
+      <c r="E56" t="s">
         <v>53</v>
       </c>
-      <c r="D56" t="s">
+      <c r="F56" t="s">
         <v>251</v>
       </c>
-      <c r="E56" t="s">
+      <c r="G56" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A57">
         <v>530</v>
       </c>
-      <c r="B57" t="s">
-        <v>45</v>
-      </c>
-      <c r="C57" t="s">
+      <c r="D57" t="s">
+        <v>45</v>
+      </c>
+      <c r="E57" t="s">
         <v>54</v>
       </c>
-      <c r="D57" t="s">
+      <c r="F57" t="s">
         <v>252</v>
       </c>
-      <c r="E57" t="s">
+      <c r="G57" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A58">
         <v>1000</v>
       </c>
-      <c r="B58" t="s">
-        <v>45</v>
-      </c>
-      <c r="C58" t="s">
+      <c r="D58" t="s">
+        <v>45</v>
+      </c>
+      <c r="E58" t="s">
         <v>55</v>
       </c>
-      <c r="D58" t="s">
+      <c r="F58" t="s">
         <v>316</v>
       </c>
-      <c r="E58" t="s">
+      <c r="G58" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A59">
         <v>6600</v>
       </c>
-      <c r="B59" t="s">
-        <v>45</v>
-      </c>
-      <c r="C59" t="s">
+      <c r="D59" t="s">
+        <v>45</v>
+      </c>
+      <c r="E59" t="s">
         <v>56</v>
       </c>
-      <c r="D59" t="s">
+      <c r="F59" t="s">
         <v>253</v>
       </c>
-      <c r="E59" t="s">
+      <c r="G59" t="s">
         <v>314</v>
       </c>
-      <c r="F59" t="s">
+      <c r="H59" t="s">
         <v>304</v>
       </c>
-      <c r="G59" t="s">
+      <c r="I59" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A60">
         <v>8330</v>
       </c>
-      <c r="B60" t="s">
-        <v>45</v>
-      </c>
-      <c r="C60" t="s">
+      <c r="D60" t="s">
+        <v>45</v>
+      </c>
+      <c r="E60" t="s">
         <v>57</v>
       </c>
-      <c r="D60" t="s">
+      <c r="F60" t="s">
         <v>254</v>
       </c>
-      <c r="E60" t="s">
+      <c r="G60" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A61">
         <v>430</v>
       </c>
-      <c r="B61" t="s">
-        <v>45</v>
-      </c>
-      <c r="C61" t="s">
+      <c r="D61" t="s">
+        <v>45</v>
+      </c>
+      <c r="E61" t="s">
         <v>58</v>
       </c>
-      <c r="D61" t="s">
+      <c r="F61" t="s">
         <v>174</v>
       </c>
-      <c r="E61" t="s">
+      <c r="G61" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A62">
         <v>1450</v>
       </c>
-      <c r="B62" t="s">
-        <v>45</v>
-      </c>
-      <c r="C62" t="s">
+      <c r="D62" t="s">
+        <v>45</v>
+      </c>
+      <c r="E62" t="s">
         <v>59</v>
       </c>
-      <c r="D62" t="s">
+      <c r="F62" t="s">
         <v>175</v>
       </c>
-      <c r="E62" t="s">
+      <c r="G62" t="s">
         <v>214</v>
       </c>
-      <c r="F62" t="s">
+      <c r="H62" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A63">
         <v>420</v>
       </c>
-      <c r="B63" t="s">
-        <v>45</v>
-      </c>
-      <c r="C63" t="s">
+      <c r="D63" t="s">
+        <v>45</v>
+      </c>
+      <c r="E63" t="s">
         <v>60</v>
       </c>
-      <c r="D63" t="s">
+      <c r="F63" t="s">
         <v>255</v>
       </c>
-      <c r="E63" t="s">
+      <c r="G63" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A64">
         <v>830</v>
       </c>
-      <c r="B64" t="s">
-        <v>45</v>
-      </c>
-      <c r="C64" t="s">
+      <c r="D64" t="s">
+        <v>45</v>
+      </c>
+      <c r="E64" t="s">
         <v>61</v>
       </c>
-      <c r="D64" t="s">
+      <c r="F64" t="s">
         <v>176</v>
       </c>
-      <c r="E64" t="s">
+      <c r="G64" t="s">
         <v>216</v>
       </c>
-      <c r="F64" t="s">
+      <c r="H64" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A65">
         <v>680</v>
       </c>
-      <c r="B65" t="s">
-        <v>45</v>
-      </c>
-      <c r="C65" t="s">
+      <c r="D65" t="s">
+        <v>45</v>
+      </c>
+      <c r="E65" t="s">
         <v>62</v>
       </c>
-      <c r="D65" t="s">
+      <c r="F65" t="s">
         <v>256</v>
       </c>
-      <c r="E65" t="s">
+      <c r="G65" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A66">
         <v>2490</v>
       </c>
-      <c r="B66" t="s">
-        <v>45</v>
-      </c>
-      <c r="C66" t="s">
+      <c r="D66" t="s">
+        <v>45</v>
+      </c>
+      <c r="E66" t="s">
         <v>63</v>
       </c>
-      <c r="D66" t="s">
+      <c r="F66" t="s">
         <v>177</v>
       </c>
-      <c r="E66" t="s">
+      <c r="G66" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A67">
         <v>300</v>
       </c>
-      <c r="B67" t="s">
-        <v>45</v>
-      </c>
-      <c r="C67" t="s">
+      <c r="D67" t="s">
+        <v>45</v>
+      </c>
+      <c r="E67" t="s">
         <v>64</v>
       </c>
-      <c r="D67" t="s">
+      <c r="F67" t="s">
         <v>257</v>
       </c>
-      <c r="E67" t="s">
+      <c r="G67" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A68">
         <v>290</v>
       </c>
-      <c r="B68" t="s">
-        <v>45</v>
-      </c>
-      <c r="C68" t="s">
+      <c r="D68" t="s">
+        <v>45</v>
+      </c>
+      <c r="E68" t="s">
         <v>65</v>
       </c>
-      <c r="D68" t="s">
+      <c r="F68" t="s">
         <v>258</v>
       </c>
-      <c r="E68" t="s">
+      <c r="G68" t="s">
         <v>221</v>
       </c>
-      <c r="F68" t="s">
+      <c r="H68" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A69">
         <v>1240</v>
       </c>
-      <c r="B69" t="s">
-        <v>45</v>
-      </c>
-      <c r="C69" t="s">
+      <c r="D69" t="s">
+        <v>45</v>
+      </c>
+      <c r="E69" t="s">
         <v>66</v>
       </c>
-      <c r="D69" t="s">
+      <c r="F69" t="s">
         <v>178</v>
       </c>
-      <c r="E69" t="s">
+      <c r="G69" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A70">
         <v>710</v>
       </c>
-      <c r="B70" t="s">
-        <v>45</v>
-      </c>
-      <c r="C70" t="s">
+      <c r="D70" t="s">
+        <v>45</v>
+      </c>
+      <c r="E70" t="s">
         <v>67</v>
       </c>
-      <c r="D70" t="s">
+      <c r="F70" t="s">
         <v>179</v>
       </c>
-      <c r="E70" t="s">
+      <c r="G70" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A71">
         <v>5330</v>
       </c>
-      <c r="B71" t="s">
-        <v>45</v>
-      </c>
-      <c r="C71" t="s">
+      <c r="D71" t="s">
+        <v>45</v>
+      </c>
+      <c r="E71" t="s">
         <v>68</v>
       </c>
-      <c r="D71" t="s">
+      <c r="F71" t="s">
         <v>259</v>
       </c>
-      <c r="E71" t="s">
+      <c r="G71" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A72">
         <v>560</v>
       </c>
-      <c r="B72" t="s">
-        <v>45</v>
-      </c>
-      <c r="C72" t="s">
+      <c r="D72" t="s">
+        <v>45</v>
+      </c>
+      <c r="E72" t="s">
         <v>69</v>
       </c>
-      <c r="D72" t="s">
+      <c r="F72" t="s">
         <v>180</v>
       </c>
-      <c r="E72" t="s">
+      <c r="G72" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A73">
         <v>570</v>
       </c>
-      <c r="B73" t="s">
-        <v>45</v>
-      </c>
-      <c r="C73" t="s">
+      <c r="D73" t="s">
+        <v>45</v>
+      </c>
+      <c r="E73" t="s">
         <v>70</v>
       </c>
-      <c r="D73" t="s">
+      <c r="F73" t="s">
         <v>260</v>
       </c>
-      <c r="E73" t="s">
+      <c r="G73" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A74">
         <v>730</v>
       </c>
-      <c r="B74" t="s">
-        <v>45</v>
-      </c>
-      <c r="C74" t="s">
+      <c r="D74" t="s">
+        <v>45</v>
+      </c>
+      <c r="E74" t="s">
         <v>71</v>
       </c>
-      <c r="D74" t="s">
+      <c r="F74" t="s">
         <v>182</v>
       </c>
-      <c r="E74" t="s">
+      <c r="G74" t="s">
         <v>181</v>
       </c>
-      <c r="G74" t="s">
+      <c r="I74" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A75">
         <v>470</v>
       </c>
-      <c r="B75" t="s">
-        <v>45</v>
-      </c>
-      <c r="C75" t="s">
+      <c r="D75" t="s">
+        <v>45</v>
+      </c>
+      <c r="E75" t="s">
         <v>72</v>
       </c>
-      <c r="D75" t="s">
+      <c r="F75" t="s">
         <v>261</v>
       </c>
-      <c r="E75" t="s">
+      <c r="G75" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A76">
         <v>6790</v>
       </c>
-      <c r="B76" t="s">
-        <v>45</v>
-      </c>
-      <c r="C76" t="s">
+      <c r="D76" t="s">
+        <v>45</v>
+      </c>
+      <c r="E76" t="s">
         <v>73</v>
       </c>
-      <c r="D76" t="s">
+      <c r="F76" t="s">
         <v>183</v>
       </c>
-      <c r="E76" t="s">
+      <c r="G76" t="s">
         <v>229</v>
       </c>
-      <c r="F76" t="s">
+      <c r="H76" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A77">
         <v>7000</v>
       </c>
-      <c r="B77" t="s">
-        <v>45</v>
-      </c>
-      <c r="C77" t="s">
+      <c r="D77" t="s">
+        <v>45</v>
+      </c>
+      <c r="E77" t="s">
         <v>74</v>
       </c>
-      <c r="D77" t="s">
+      <c r="F77" t="s">
         <v>185</v>
       </c>
-      <c r="E77" t="s">
+      <c r="G77" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A78">
         <v>430</v>
       </c>
-      <c r="B78" t="s">
-        <v>45</v>
-      </c>
-      <c r="C78" t="s">
+      <c r="D78" t="s">
+        <v>45</v>
+      </c>
+      <c r="E78" t="s">
         <v>75</v>
       </c>
-      <c r="D78" t="s">
+      <c r="F78" t="s">
         <v>262</v>
       </c>
-      <c r="E78" t="s">
+      <c r="G78" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A79">
         <v>570</v>
       </c>
-      <c r="B79" t="s">
-        <v>45</v>
-      </c>
-      <c r="C79" t="s">
+      <c r="D79" t="s">
+        <v>45</v>
+      </c>
+      <c r="E79" t="s">
         <v>76</v>
       </c>
-      <c r="D79" t="s">
+      <c r="F79" t="s">
         <v>263</v>
       </c>
-      <c r="E79" t="s">
+      <c r="G79" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A80">
         <v>1230</v>
       </c>
-      <c r="B80" t="s">
-        <v>45</v>
-      </c>
-      <c r="C80" t="s">
+      <c r="D80" t="s">
+        <v>45</v>
+      </c>
+      <c r="E80" t="s">
         <v>77</v>
       </c>
-      <c r="D80" t="s">
+      <c r="F80" t="s">
         <v>264</v>
       </c>
-      <c r="E80" t="s">
+      <c r="G80" t="s">
         <v>234</v>
       </c>
-      <c r="F80" t="s">
+      <c r="H80" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A81">
         <v>1230</v>
       </c>
-      <c r="B81" t="s">
-        <v>45</v>
-      </c>
-      <c r="C81" t="s">
+      <c r="D81" t="s">
+        <v>45</v>
+      </c>
+      <c r="E81" t="s">
         <v>282</v>
       </c>
-      <c r="D81" t="s">
+      <c r="F81" t="s">
         <v>283</v>
       </c>
-      <c r="E81" t="s">
+      <c r="G81" t="s">
         <v>284</v>
       </c>
-      <c r="F81" t="s">
+      <c r="H81" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A82">
         <v>1230</v>
       </c>
-      <c r="B82" t="s">
-        <v>45</v>
-      </c>
-      <c r="C82" t="s">
+      <c r="D82" t="s">
+        <v>45</v>
+      </c>
+      <c r="E82" t="s">
         <v>322</v>
       </c>
-      <c r="D82" t="s">
+      <c r="F82" t="s">
         <v>320</v>
       </c>
-      <c r="E82" t="s">
+      <c r="G82" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A83">
         <v>2390</v>
       </c>
-      <c r="B83" t="s">
-        <v>45</v>
-      </c>
-      <c r="C83" t="s">
+      <c r="D83" t="s">
+        <v>45</v>
+      </c>
+      <c r="E83" t="s">
         <v>78</v>
       </c>
-      <c r="D83" t="s">
+      <c r="F83" t="s">
         <v>265</v>
       </c>
-      <c r="E83" t="s">
+      <c r="G83" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A84">
         <v>1060</v>
       </c>
-      <c r="B84" t="s">
-        <v>45</v>
-      </c>
-      <c r="C84" t="s">
+      <c r="D84" t="s">
+        <v>45</v>
+      </c>
+      <c r="E84" t="s">
         <v>79</v>
       </c>
-      <c r="D84" t="s">
+      <c r="F84" t="s">
         <v>266</v>
       </c>
-      <c r="E84" t="s">
+      <c r="G84" t="s">
         <v>186</v>
       </c>
-      <c r="F84" t="s">
+      <c r="H84" t="s">
         <v>318</v>
       </c>
-      <c r="G84" t="s">
+      <c r="I84" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A85">
         <v>330</v>
       </c>
-      <c r="B85" t="s">
-        <v>45</v>
-      </c>
-      <c r="C85" t="s">
+      <c r="D85" t="s">
+        <v>45</v>
+      </c>
+      <c r="E85" t="s">
         <v>80</v>
       </c>
-      <c r="D85" t="s">
+      <c r="F85" t="s">
         <v>267</v>
       </c>
-      <c r="E85" t="s">
+      <c r="G85" t="s">
         <v>236</v>
       </c>
-      <c r="F85" t="s">
+      <c r="H85" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A86">
         <v>750</v>
       </c>
-      <c r="B86" t="s">
-        <v>45</v>
-      </c>
-      <c r="C86" t="s">
+      <c r="D86" t="s">
+        <v>45</v>
+      </c>
+      <c r="E86" t="s">
         <v>81</v>
       </c>
-      <c r="D86" t="s">
+      <c r="F86" t="s">
         <v>268</v>
       </c>
-      <c r="E86" t="s">
+      <c r="G86" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A87">
         <v>2890</v>
       </c>
-      <c r="B87" t="s">
-        <v>45</v>
-      </c>
-      <c r="C87" t="s">
+      <c r="D87" t="s">
+        <v>45</v>
+      </c>
+      <c r="E87" t="s">
         <v>82</v>
       </c>
-      <c r="D87" t="s">
+      <c r="F87" t="s">
         <v>188</v>
       </c>
-      <c r="E87" t="s">
+      <c r="G87" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" t="s">
         <v>299</v>
       </c>
-      <c r="B88" t="s">
+      <c r="D88" t="s">
         <v>83</v>
       </c>
-      <c r="C88" t="s">
+      <c r="E88" t="s">
         <v>84</v>
       </c>
-      <c r="D88" t="s">
+      <c r="F88" t="s">
         <v>190</v>
       </c>
-      <c r="E88" t="s">
+      <c r="G88" t="s">
         <v>189</v>
       </c>
-      <c r="F88" t="s">
+      <c r="H88" t="s">
         <v>276</v>
       </c>
-      <c r="G88" t="s">
+      <c r="I88" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A89">
         <v>3850</v>
       </c>
-      <c r="B89" t="s">
+      <c r="D89" t="s">
         <v>83</v>
       </c>
-      <c r="C89" t="s">
+      <c r="E89" t="s">
         <v>85</v>
       </c>
-      <c r="D89" t="s">
+      <c r="F89" t="s">
         <v>192</v>
       </c>
-      <c r="E89" t="s">
+      <c r="G89" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A90">
         <v>240</v>
       </c>
-      <c r="B90" t="s">
+      <c r="D90" t="s">
         <v>83</v>
       </c>
-      <c r="C90" t="s">
+      <c r="E90" t="s">
         <v>86</v>
       </c>
-      <c r="D90" t="s">
+      <c r="F90" t="s">
         <v>269</v>
       </c>
-      <c r="E90" t="s">
+      <c r="G90" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A91">
         <v>330</v>
       </c>
-      <c r="B91" t="s">
+      <c r="D91" t="s">
         <v>83</v>
       </c>
-      <c r="C91" t="s">
+      <c r="E91" t="s">
         <v>87</v>
       </c>
-      <c r="D91" t="s">
+      <c r="F91" t="s">
         <v>270</v>
       </c>
-      <c r="E91" t="s">
+      <c r="G91" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A92">
         <v>540</v>
       </c>
-      <c r="B92" t="s">
+      <c r="D92" t="s">
         <v>83</v>
       </c>
-      <c r="C92" t="s">
+      <c r="E92" t="s">
         <v>88</v>
       </c>
-      <c r="D92" t="s">
+      <c r="F92" t="s">
         <v>271</v>
       </c>
-      <c r="E92" t="s">
+      <c r="G92" t="s">
         <v>240</v>
       </c>
     </row>

--- a/rtss-mexico/src/main/resources/agriculture/cultures.xlsx
+++ b/rtss-mexico/src/main/resources/agriculture/cultures.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-mexico\src\main\resources\agriculture\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8212F98-18FB-41E2-A6E5-9624D5A5258F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{272CA587-73AF-4B69-8F66-2FA06E471B9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="57840" windowHeight="23520" activeTab="1" xr2:uid="{96FB73F9-179D-47FB-B022-0E98E67E2FA8}"/>
+    <workbookView xWindow="78465" yWindow="1920" windowWidth="30225" windowHeight="21105" activeTab="1" xr2:uid="{96FB73F9-179D-47FB-B022-0E98E67E2FA8}"/>
   </bookViews>
   <sheets>
     <sheet name="note" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="335">
   <si>
     <t>Annual</t>
   </si>
@@ -1034,6 +1034,9 @@
   </si>
   <si>
     <t>fodder%</t>
+  </si>
+  <si>
+    <t>фуражный % извлекается автоматически из балансов ФАО</t>
   </si>
 </sst>
 </file>
@@ -1468,8 +1471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5536FC84-276C-47F5-A823-8A76B73F8393}">
   <dimension ref="A1:I92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="C91" sqref="C91"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2373,6 +2376,9 @@
       <c r="A44">
         <v>1470</v>
       </c>
+      <c r="B44">
+        <v>5</v>
+      </c>
       <c r="D44" t="s">
         <v>0</v>
       </c>
@@ -2387,6 +2393,9 @@
       </c>
       <c r="H44" t="s">
         <v>310</v>
+      </c>
+      <c r="I44" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.55000000000000004">
